--- a/R/data/MI231106.xlsx
+++ b/R/data/MI231106.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A55566-77EF-2B4D-A201-072046785FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC837E57-43DD-8A4B-8CB0-FF2C3C95E31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50080" yWindow="1580" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50080" yWindow="1560" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12400" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14229" uniqueCount="618">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1670,6 +1670,210 @@
   </si>
   <si>
     <t>안정하</t>
+  </si>
+  <si>
+    <t>0319dy@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>dlguswls0676@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 철학전공</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>kkhe2370@naver.com</t>
+  </si>
+  <si>
+    <t>전혜린</t>
+  </si>
+  <si>
+    <t>rhksan324@naver.com</t>
+  </si>
+  <si>
+    <t>이관무</t>
+  </si>
+  <si>
+    <t>sshs0206@naver.com</t>
+  </si>
+  <si>
+    <t>최지민</t>
+  </si>
+  <si>
+    <t>junhvn1@gmail.com</t>
+  </si>
+  <si>
+    <t>박준한</t>
+  </si>
+  <si>
+    <t>inhwagil40@gmail.com</t>
+  </si>
+  <si>
+    <t>길인화</t>
+  </si>
+  <si>
+    <t>lhj040512@naver.com</t>
+  </si>
+  <si>
+    <t>이현종</t>
+  </si>
+  <si>
+    <t>dodjdodhrghr@naver.com</t>
+  </si>
+  <si>
+    <t>융합신소재공학전공</t>
+  </si>
+  <si>
+    <t>송서현</t>
+  </si>
+  <si>
+    <t>ntkrud0221@naver.com</t>
+  </si>
+  <si>
+    <t>노태경</t>
+  </si>
+  <si>
+    <t>ajw20040114@gmail.com</t>
+  </si>
+  <si>
+    <t>안정우</t>
+  </si>
+  <si>
+    <t>jjsuk9702@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>김선혁</t>
+  </si>
+  <si>
+    <t>popoq2004@naver.com</t>
+  </si>
+  <si>
+    <t>박신비</t>
+  </si>
+  <si>
+    <t>wotmddl3947@gmail.com</t>
+  </si>
+  <si>
+    <t>류재승</t>
+  </si>
+  <si>
+    <t>gksgh2311@naver.com</t>
+  </si>
+  <si>
+    <t>전한호</t>
+  </si>
+  <si>
+    <t>dbwlgns1307@naver.com</t>
+  </si>
+  <si>
+    <t>유지훈</t>
+  </si>
+  <si>
+    <t>harin3040@naver.com</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>kirokmom@naver.com</t>
+  </si>
+  <si>
+    <t>김병관</t>
+  </si>
+  <si>
+    <t>5614bok@naver.com</t>
+  </si>
+  <si>
+    <t>안세진</t>
+  </si>
+  <si>
+    <t>ekgus0916@naver.com</t>
+  </si>
+  <si>
+    <t>김다현</t>
+  </si>
+  <si>
+    <t>h20206619@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>신현경</t>
+  </si>
+  <si>
+    <t>chh040817@naver.com</t>
+  </si>
+  <si>
+    <t>차현화</t>
+  </si>
+  <si>
+    <t>syn_1234@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠it</t>
+  </si>
+  <si>
+    <t>사영노</t>
+  </si>
+  <si>
+    <t>ggwoo02211@gmail.com</t>
+  </si>
+  <si>
+    <t>박건우</t>
+  </si>
+  <si>
+    <t>kq872@naver.com</t>
+  </si>
+  <si>
+    <t>생명과학과과</t>
+  </si>
+  <si>
+    <t>이원상</t>
+  </si>
+  <si>
+    <t>ga89193234@gmail.com</t>
+  </si>
+  <si>
+    <t>김경아</t>
+  </si>
+  <si>
+    <t>phg1242@naver.com</t>
+  </si>
+  <si>
+    <t>박효근</t>
+  </si>
+  <si>
+    <t>nanadiana222@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터과</t>
+  </si>
+  <si>
+    <t>조희진</t>
+  </si>
+  <si>
+    <t>ksrkatie@naver.com</t>
+  </si>
+  <si>
+    <t>권소린</t>
+  </si>
+  <si>
+    <t>leaf0113@naver.com</t>
+  </si>
+  <si>
+    <t>김남은</t>
+  </si>
+  <si>
+    <t>ggjtt4051@gmail.com</t>
+  </si>
+  <si>
+    <t>최아린</t>
   </si>
 </sst>
 </file>
@@ -1943,11 +2147,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ210"/>
+  <dimension ref="A1:BQ241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E219" sqref="E219"/>
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -45845,6 +46049,6485 @@
         <v>16</v>
       </c>
     </row>
+    <row r="211" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="2">
+        <v>45240.37766484954</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D211" s="1">
+        <v>20225116</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ211" s="1">
+        <v>20</v>
+      </c>
+      <c r="BK211" s="1">
+        <v>20</v>
+      </c>
+      <c r="BL211" s="1">
+        <v>20</v>
+      </c>
+      <c r="BM211" s="1">
+        <v>20</v>
+      </c>
+      <c r="BN211" s="1">
+        <v>20</v>
+      </c>
+      <c r="BO211" s="1">
+        <v>20</v>
+      </c>
+      <c r="BP211" s="1">
+        <v>20</v>
+      </c>
+      <c r="BQ211" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="2">
+        <v>45240.436773171299</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D212" s="1">
+        <v>20171078</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P212" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q212" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R212" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S212" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T212" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X212" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA212" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB212" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC212" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF212" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG212" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH212" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI212" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ212" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK212" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP212" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ212" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR212" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS212" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV212" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW212" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX212" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY212" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ212" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA212" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD212" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE212" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF212" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG212" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH212" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI212" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ212" s="1">
+        <v>10</v>
+      </c>
+      <c r="BK212" s="1">
+        <v>7</v>
+      </c>
+      <c r="BL212" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM212" s="1">
+        <v>12</v>
+      </c>
+      <c r="BN212" s="1">
+        <v>27</v>
+      </c>
+      <c r="BO212" s="1">
+        <v>30</v>
+      </c>
+      <c r="BP212" s="1">
+        <v>26</v>
+      </c>
+      <c r="BQ212" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="2">
+        <v>45240.464087789354</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D213" s="1">
+        <v>20202638</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M213" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P213" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S213" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T213" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U213" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V213" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W213" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y213" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB213" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD213" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE213" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF213" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH213" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL213" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO213" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP213" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR213" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS213" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT213" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU213" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW213" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX213" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB213" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC213" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD213" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH213" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI213" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ213" s="1">
+        <v>21</v>
+      </c>
+      <c r="BK213" s="1">
+        <v>16</v>
+      </c>
+      <c r="BL213" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM213" s="1">
+        <v>25</v>
+      </c>
+      <c r="BN213" s="1">
+        <v>31</v>
+      </c>
+      <c r="BO213" s="1">
+        <v>27</v>
+      </c>
+      <c r="BP213" s="1">
+        <v>29</v>
+      </c>
+      <c r="BQ213" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="2">
+        <v>45240.485510648148</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D214" s="1">
+        <v>20203001</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O214" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P214" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V214" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z214" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI214" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ214" s="1">
+        <v>20</v>
+      </c>
+      <c r="BK214" s="1">
+        <v>15</v>
+      </c>
+      <c r="BL214" s="1">
+        <v>35</v>
+      </c>
+      <c r="BM214" s="1">
+        <v>24</v>
+      </c>
+      <c r="BN214" s="1">
+        <v>16</v>
+      </c>
+      <c r="BO214" s="1">
+        <v>26</v>
+      </c>
+      <c r="BP214" s="1">
+        <v>18</v>
+      </c>
+      <c r="BQ214" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="2">
+        <v>45240.543479780092</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D215" s="1">
+        <v>20236174</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X215" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y215" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z215" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP215" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV215" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW215" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ215" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD215" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE215" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF215" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH215" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ215" s="1">
+        <v>15</v>
+      </c>
+      <c r="BK215" s="1">
+        <v>14</v>
+      </c>
+      <c r="BL215" s="1">
+        <v>16</v>
+      </c>
+      <c r="BM215" s="1">
+        <v>14</v>
+      </c>
+      <c r="BN215" s="1">
+        <v>16</v>
+      </c>
+      <c r="BO215" s="1">
+        <v>15</v>
+      </c>
+      <c r="BP215" s="1">
+        <v>15</v>
+      </c>
+      <c r="BQ215" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="2">
+        <v>45240.569161030093</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D216" s="1">
+        <v>20192614</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M216" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N216" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O216" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P216" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U216" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W216" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z216" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC216" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD216" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE216" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL216" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM216" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN216" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO216" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR216" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS216" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT216" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE216" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI216" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ216" s="1">
+        <v>22</v>
+      </c>
+      <c r="BK216" s="1">
+        <v>21</v>
+      </c>
+      <c r="BL216" s="1">
+        <v>28</v>
+      </c>
+      <c r="BM216" s="1">
+        <v>24</v>
+      </c>
+      <c r="BN216" s="1">
+        <v>27</v>
+      </c>
+      <c r="BO216" s="1">
+        <v>35</v>
+      </c>
+      <c r="BP216" s="1">
+        <v>34</v>
+      </c>
+      <c r="BQ216" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="2">
+        <v>45240.571383298608</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D217" s="1">
+        <v>20236210</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K217" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M217" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N217" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O217" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P217" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T217" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U217" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W217" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y217" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z217" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA217" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB217" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD217" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE217" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF217" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG217" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH217" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI217" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ217" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK217" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN217" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO217" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ217" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR217" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS217" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT217" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU217" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV217" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX217" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY217" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA217" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB217" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC217" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD217" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE217" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF217" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG217" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH217" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI217" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ217" s="1">
+        <v>16</v>
+      </c>
+      <c r="BK217" s="1">
+        <v>23</v>
+      </c>
+      <c r="BL217" s="1">
+        <v>18</v>
+      </c>
+      <c r="BM217" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN217" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO217" s="1">
+        <v>30</v>
+      </c>
+      <c r="BP217" s="1">
+        <v>28</v>
+      </c>
+      <c r="BQ217" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="2">
+        <v>45240.573057905094</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D218" s="1">
+        <v>20233424</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N218" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z218" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB218" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC218" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ218" s="1">
+        <v>25</v>
+      </c>
+      <c r="BK218" s="1">
+        <v>23</v>
+      </c>
+      <c r="BL218" s="1">
+        <v>22</v>
+      </c>
+      <c r="BM218" s="1">
+        <v>24</v>
+      </c>
+      <c r="BN218" s="1">
+        <v>25</v>
+      </c>
+      <c r="BO218" s="1">
+        <v>21</v>
+      </c>
+      <c r="BP218" s="1">
+        <v>22</v>
+      </c>
+      <c r="BQ218" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="2">
+        <v>45240.575369849539</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D219" s="1">
+        <v>20216618</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ219" s="1">
+        <v>7</v>
+      </c>
+      <c r="BK219" s="1">
+        <v>15</v>
+      </c>
+      <c r="BL219" s="1">
+        <v>31</v>
+      </c>
+      <c r="BM219" s="1">
+        <v>27</v>
+      </c>
+      <c r="BN219" s="1">
+        <v>13</v>
+      </c>
+      <c r="BO219" s="1">
+        <v>23</v>
+      </c>
+      <c r="BP219" s="1">
+        <v>31</v>
+      </c>
+      <c r="BQ219" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="2">
+        <v>45240.580449131943</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D220" s="1">
+        <v>20234118</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M220" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N220" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O220" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P220" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q220" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R220" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S220" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T220" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U220" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V220" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W220" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X220" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y220" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z220" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC220" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE220" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI220" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ220" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK220" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL220" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO220" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ220" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR220" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS220" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU220" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV220" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW220" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX220" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY220" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA220" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB220" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD220" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE220" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF220" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH220" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI220" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ220" s="1">
+        <v>18</v>
+      </c>
+      <c r="BK220" s="1">
+        <v>31</v>
+      </c>
+      <c r="BL220" s="1">
+        <v>16</v>
+      </c>
+      <c r="BM220" s="1">
+        <v>12</v>
+      </c>
+      <c r="BN220" s="1">
+        <v>22</v>
+      </c>
+      <c r="BO220" s="1">
+        <v>27</v>
+      </c>
+      <c r="BP220" s="1">
+        <v>23</v>
+      </c>
+      <c r="BQ220" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="2">
+        <v>45240.615256759258</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D221" s="1">
+        <v>20235202</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K221" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P221" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q221" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R221" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S221" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T221" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U221" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X221" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z221" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA221" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB221" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF221" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG221" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI221" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ221" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK221" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM221" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN221" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO221" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP221" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ221" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV221" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW221" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY221" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ221" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD221" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE221" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF221" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG221" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH221" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI221" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ221" s="1">
+        <v>14</v>
+      </c>
+      <c r="BK221" s="1">
+        <v>14</v>
+      </c>
+      <c r="BL221" s="1">
+        <v>14</v>
+      </c>
+      <c r="BM221" s="1">
+        <v>14</v>
+      </c>
+      <c r="BN221" s="1">
+        <v>14</v>
+      </c>
+      <c r="BO221" s="1">
+        <v>14</v>
+      </c>
+      <c r="BP221" s="1">
+        <v>14</v>
+      </c>
+      <c r="BQ221" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="2">
+        <v>45240.61603193287</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D222" s="1">
+        <v>20217141</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M222" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O222" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U222" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC222" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE222" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK222" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM222" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN222" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO222" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR222" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS222" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU222" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA222" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB222" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH222" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI222" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ222" s="1">
+        <v>22</v>
+      </c>
+      <c r="BK222" s="1">
+        <v>18</v>
+      </c>
+      <c r="BL222" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM222" s="1">
+        <v>30</v>
+      </c>
+      <c r="BN222" s="1">
+        <v>24</v>
+      </c>
+      <c r="BO222" s="1">
+        <v>25</v>
+      </c>
+      <c r="BP222" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ222" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="2">
+        <v>45240.641421412038</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D223" s="1">
+        <v>20236239</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M223" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N223" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R223" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T223" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U223" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W223" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X223" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH223" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW223" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF223" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG223" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI223" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ223" s="1">
+        <v>19</v>
+      </c>
+      <c r="BK223" s="1">
+        <v>15</v>
+      </c>
+      <c r="BL223" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM223" s="1">
+        <v>19</v>
+      </c>
+      <c r="BN223" s="1">
+        <v>23</v>
+      </c>
+      <c r="BO223" s="1">
+        <v>23</v>
+      </c>
+      <c r="BP223" s="1">
+        <v>18</v>
+      </c>
+      <c r="BQ223" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="2">
+        <v>45240.698741053246</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D224" s="1">
+        <v>20195157</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S224" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V224" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y224" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB224" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC224" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD224" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF224" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM224" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN224" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ224" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV224" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW224" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ224" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB224" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF224" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ224" s="1">
+        <v>12</v>
+      </c>
+      <c r="BK224" s="1">
+        <v>11</v>
+      </c>
+      <c r="BL224" s="1">
+        <v>25</v>
+      </c>
+      <c r="BM224" s="1">
+        <v>19</v>
+      </c>
+      <c r="BN224" s="1">
+        <v>14</v>
+      </c>
+      <c r="BO224" s="1">
+        <v>20</v>
+      </c>
+      <c r="BP224" s="1">
+        <v>16</v>
+      </c>
+      <c r="BQ224" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="2">
+        <v>45240.707655243052</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D225" s="1">
+        <v>20232842</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W225" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA225" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB225" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI225" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ225" s="1">
+        <v>8</v>
+      </c>
+      <c r="BK225" s="1">
+        <v>10</v>
+      </c>
+      <c r="BL225" s="1">
+        <v>25</v>
+      </c>
+      <c r="BM225" s="1">
+        <v>13</v>
+      </c>
+      <c r="BN225" s="1">
+        <v>7</v>
+      </c>
+      <c r="BO225" s="1">
+        <v>7</v>
+      </c>
+      <c r="BP225" s="1">
+        <v>34</v>
+      </c>
+      <c r="BQ225" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="2">
+        <v>45240.724162164348</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D226" s="1">
+        <v>20194132</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N226" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O226" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P226" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q226" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S226" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T226" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V226" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W226" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X226" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA226" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB226" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE226" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF226" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG226" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI226" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ226" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL226" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM226" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN226" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ226" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR226" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT226" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV226" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW226" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY226" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ226" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB226" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE226" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF226" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH226" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI226" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ226" s="1">
+        <v>22</v>
+      </c>
+      <c r="BK226" s="1">
+        <v>25</v>
+      </c>
+      <c r="BL226" s="1">
+        <v>19</v>
+      </c>
+      <c r="BM226" s="1">
+        <v>14</v>
+      </c>
+      <c r="BN226" s="1">
+        <v>10</v>
+      </c>
+      <c r="BO226" s="1">
+        <v>23</v>
+      </c>
+      <c r="BP226" s="1">
+        <v>24</v>
+      </c>
+      <c r="BQ226" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="2">
+        <v>45240.730174166667</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D227" s="1">
+        <v>20232113</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M227" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R227" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS227" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ227" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD227" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF227" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG227" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI227" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ227" s="1">
+        <v>24</v>
+      </c>
+      <c r="BK227" s="1">
+        <v>23</v>
+      </c>
+      <c r="BL227" s="1">
+        <v>23</v>
+      </c>
+      <c r="BM227" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN227" s="1">
+        <v>28</v>
+      </c>
+      <c r="BO227" s="1">
+        <v>20</v>
+      </c>
+      <c r="BP227" s="1">
+        <v>25</v>
+      </c>
+      <c r="BQ227" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="2">
+        <v>45240.752295729166</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D228" s="1">
+        <v>20192709</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N228" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI228" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ228" s="1">
+        <v>21</v>
+      </c>
+      <c r="BK228" s="1">
+        <v>25</v>
+      </c>
+      <c r="BL228" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM228" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN228" s="1">
+        <v>24</v>
+      </c>
+      <c r="BO228" s="1">
+        <v>24</v>
+      </c>
+      <c r="BP228" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ228" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="2">
+        <v>45240.76944506944</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D229" s="1">
+        <v>20233525</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N229" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U229" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y229" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z229" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB229" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD229" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ229" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT229" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU229" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW229" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX229" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ229" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB229" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC229" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD229" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF229" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG229" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH229" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI229" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ229" s="1">
+        <v>17</v>
+      </c>
+      <c r="BK229" s="1">
+        <v>25</v>
+      </c>
+      <c r="BL229" s="1">
+        <v>30</v>
+      </c>
+      <c r="BM229" s="1">
+        <v>22</v>
+      </c>
+      <c r="BN229" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO229" s="1">
+        <v>29</v>
+      </c>
+      <c r="BP229" s="1">
+        <v>30</v>
+      </c>
+      <c r="BQ229" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="2">
+        <v>45240.866649525458</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D230" s="1">
+        <v>20217125</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O230" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q230" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R230" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S230" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T230" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U230" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W230" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X230" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y230" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA230" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB230" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC230" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE230" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF230" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG230" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH230" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI230" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ230" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK230" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP230" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ230" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW230" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY230" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ230" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA230" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE230" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF230" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH230" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI230" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ230" s="1">
+        <v>7</v>
+      </c>
+      <c r="BK230" s="1">
+        <v>35</v>
+      </c>
+      <c r="BL230" s="1">
+        <v>7</v>
+      </c>
+      <c r="BM230" s="1">
+        <v>20</v>
+      </c>
+      <c r="BN230" s="1">
+        <v>20</v>
+      </c>
+      <c r="BO230" s="1">
+        <v>29</v>
+      </c>
+      <c r="BP230" s="1">
+        <v>29</v>
+      </c>
+      <c r="BQ230" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="2">
+        <v>45240.88023623843</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D231" s="1">
+        <v>20206619</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K231" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M231" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T231" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X231" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z231" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA231" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB231" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH231" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI231" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ231" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK231" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL231" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM231" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN231" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS231" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW231" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX231" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD231" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ231" s="1">
+        <v>21</v>
+      </c>
+      <c r="BK231" s="1">
+        <v>23</v>
+      </c>
+      <c r="BL231" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM231" s="1">
+        <v>25</v>
+      </c>
+      <c r="BN231" s="1">
+        <v>17</v>
+      </c>
+      <c r="BO231" s="1">
+        <v>29</v>
+      </c>
+      <c r="BP231" s="1">
+        <v>26</v>
+      </c>
+      <c r="BQ231" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="2">
+        <v>45240.886833020835</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D232" s="1">
+        <v>20233962</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R232" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T232" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X232" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ232" s="1">
+        <v>17</v>
+      </c>
+      <c r="BK232" s="1">
+        <v>17</v>
+      </c>
+      <c r="BL232" s="1">
+        <v>22</v>
+      </c>
+      <c r="BM232" s="1">
+        <v>16</v>
+      </c>
+      <c r="BN232" s="1">
+        <v>19</v>
+      </c>
+      <c r="BO232" s="1">
+        <v>20</v>
+      </c>
+      <c r="BP232" s="1">
+        <v>23</v>
+      </c>
+      <c r="BQ232" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="2">
+        <v>45240.902434247684</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D233" s="1">
+        <v>20205184</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M233" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O233" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q233" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R233" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T233" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U233" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y233" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z233" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA233" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB233" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC233" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD233" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF233" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG233" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH233" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ233" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK233" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL233" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM233" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO233" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ233" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV233" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW233" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX233" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY233" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ233" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB233" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC233" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE233" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG233" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH233" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI233" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ233" s="1">
+        <v>15</v>
+      </c>
+      <c r="BK233" s="1">
+        <v>16</v>
+      </c>
+      <c r="BL233" s="1">
+        <v>15</v>
+      </c>
+      <c r="BM233" s="1">
+        <v>24</v>
+      </c>
+      <c r="BN233" s="1">
+        <v>12</v>
+      </c>
+      <c r="BO233" s="1">
+        <v>18</v>
+      </c>
+      <c r="BP233" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ233" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="2">
+        <v>45240.905011828705</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D234" s="1">
+        <v>20232817</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI234" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ234" s="1">
+        <v>28</v>
+      </c>
+      <c r="BK234" s="1">
+        <v>28</v>
+      </c>
+      <c r="BL234" s="1">
+        <v>28</v>
+      </c>
+      <c r="BM234" s="1">
+        <v>28</v>
+      </c>
+      <c r="BN234" s="1">
+        <v>28</v>
+      </c>
+      <c r="BO234" s="1">
+        <v>28</v>
+      </c>
+      <c r="BP234" s="1">
+        <v>28</v>
+      </c>
+      <c r="BQ234" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="235" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="2">
+        <v>45240.937971041669</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D235" s="1">
+        <v>20193531</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N235" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O235" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q235" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V235" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W235" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z235" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB235" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD235" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG235" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL235" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO235" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ235" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT235" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW235" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX235" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA235" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC235" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE235" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG235" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH235" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ235" s="1">
+        <v>10</v>
+      </c>
+      <c r="BK235" s="1">
+        <v>20</v>
+      </c>
+      <c r="BL235" s="1">
+        <v>26</v>
+      </c>
+      <c r="BM235" s="1">
+        <v>16</v>
+      </c>
+      <c r="BN235" s="1">
+        <v>19</v>
+      </c>
+      <c r="BO235" s="1">
+        <v>22</v>
+      </c>
+      <c r="BP235" s="1">
+        <v>22</v>
+      </c>
+      <c r="BQ235" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="2">
+        <v>45240.945711805558</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D236" s="1">
+        <v>20231007</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M236" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P236" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R236" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W236" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z236" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB236" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC236" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD236" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE236" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK236" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM236" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS236" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV236" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ236" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC236" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI236" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ236" s="1">
+        <v>24</v>
+      </c>
+      <c r="BK236" s="1">
+        <v>18</v>
+      </c>
+      <c r="BL236" s="1">
+        <v>27</v>
+      </c>
+      <c r="BM236" s="1">
+        <v>24</v>
+      </c>
+      <c r="BN236" s="1">
+        <v>23</v>
+      </c>
+      <c r="BO236" s="1">
+        <v>22</v>
+      </c>
+      <c r="BP236" s="1">
+        <v>25</v>
+      </c>
+      <c r="BQ236" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="2">
+        <v>45240.982234791663</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D237" s="1">
+        <v>20193926</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K237" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M237" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N237" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O237" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U237" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V237" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X237" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y237" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z237" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA237" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB237" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC237" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD237" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI237" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK237" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ237" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS237" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU237" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX237" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ237" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA237" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC237" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD237" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE237" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF237" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG237" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH237" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI237" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ237" s="1">
+        <v>27</v>
+      </c>
+      <c r="BK237" s="1">
+        <v>25</v>
+      </c>
+      <c r="BL237" s="1">
+        <v>27</v>
+      </c>
+      <c r="BM237" s="1">
+        <v>22</v>
+      </c>
+      <c r="BN237" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO237" s="1">
+        <v>27</v>
+      </c>
+      <c r="BP237" s="1">
+        <v>25</v>
+      </c>
+      <c r="BQ237" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="2">
+        <v>45240.995088530093</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D238" s="1">
+        <v>20225261</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M238" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P238" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q238" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U238" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V238" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W238" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC238" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE238" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ238" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK238" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM238" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO238" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU238" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV238" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW238" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX238" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF238" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH238" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI238" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ238" s="1">
+        <v>28</v>
+      </c>
+      <c r="BK238" s="1">
+        <v>13</v>
+      </c>
+      <c r="BL238" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM238" s="1">
+        <v>26</v>
+      </c>
+      <c r="BN238" s="1">
+        <v>23</v>
+      </c>
+      <c r="BO238" s="1">
+        <v>20</v>
+      </c>
+      <c r="BP238" s="1">
+        <v>29</v>
+      </c>
+      <c r="BQ238" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="2">
+        <v>45240.996907974535</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D239" s="1">
+        <v>20231004</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K239" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M239" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O239" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P239" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S239" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T239" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM239" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN239" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO239" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU239" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ239" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD239" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE239" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI239" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ239" s="1">
+        <v>30</v>
+      </c>
+      <c r="BK239" s="1">
+        <v>22</v>
+      </c>
+      <c r="BL239" s="1">
+        <v>12</v>
+      </c>
+      <c r="BM239" s="1">
+        <v>20</v>
+      </c>
+      <c r="BN239" s="1">
+        <v>32</v>
+      </c>
+      <c r="BO239" s="1">
+        <v>33</v>
+      </c>
+      <c r="BP239" s="1">
+        <v>31</v>
+      </c>
+      <c r="BQ239" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="2">
+        <v>45241.059090312498</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D240" s="1">
+        <v>20231203</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K240" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O240" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R240" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S240" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T240" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V240" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W240" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X240" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z240" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA240" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB240" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE240" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF240" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG240" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH240" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI240" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ240" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK240" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN240" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP240" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ240" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR240" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU240" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV240" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX240" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY240" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ240" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB240" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC240" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD240" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF240" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG240" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH240" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI240" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ240" s="1">
+        <v>11</v>
+      </c>
+      <c r="BK240" s="1">
+        <v>22</v>
+      </c>
+      <c r="BL240" s="1">
+        <v>16</v>
+      </c>
+      <c r="BM240" s="1">
+        <v>8</v>
+      </c>
+      <c r="BN240" s="1">
+        <v>33</v>
+      </c>
+      <c r="BO240" s="1">
+        <v>35</v>
+      </c>
+      <c r="BP240" s="1">
+        <v>18</v>
+      </c>
+      <c r="BQ240" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="2">
+        <v>45241.100426076388</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D241" s="1">
+        <v>20233051</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K241" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N241" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q241" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R241" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S241" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T241" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V241" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X241" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA241" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB241" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF241" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH241" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI241" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ241" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL241" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM241" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO241" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP241" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ241" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT241" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV241" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX241" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY241" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ241" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB241" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD241" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE241" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF241" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG241" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH241" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI241" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ241" s="1">
+        <v>21</v>
+      </c>
+      <c r="BK241" s="1">
+        <v>7</v>
+      </c>
+      <c r="BL241" s="1">
+        <v>15</v>
+      </c>
+      <c r="BM241" s="1">
+        <v>19</v>
+      </c>
+      <c r="BN241" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO241" s="1">
+        <v>23</v>
+      </c>
+      <c r="BP241" s="1">
+        <v>17</v>
+      </c>
+      <c r="BQ241" s="1">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/MI231106.xlsx
+++ b/R/data/MI231106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC837E57-43DD-8A4B-8CB0-FF2C3C95E31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B50E72-3676-B047-AD17-A76E94C60AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50080" yWindow="1560" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14229" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15350" uniqueCount="657">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1874,6 +1874,123 @@
   </si>
   <si>
     <t>최아린</t>
+  </si>
+  <si>
+    <t>hyu4511@gmail.com</t>
+  </si>
+  <si>
+    <t>유영후</t>
+  </si>
+  <si>
+    <t>dldusgh0908@gmail.com</t>
+  </si>
+  <si>
+    <t>이연호</t>
+  </si>
+  <si>
+    <t>cmsgood99@gmail.com</t>
+  </si>
+  <si>
+    <t>곽동희</t>
+  </si>
+  <si>
+    <t>qazx429@naver.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>aj4497@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>안연지</t>
+  </si>
+  <si>
+    <t>vivace3990@gmail.com</t>
+  </si>
+  <si>
+    <t>김정현</t>
+  </si>
+  <si>
+    <t>sexytaegeun@gmail.com</t>
+  </si>
+  <si>
+    <t>성태근</t>
+  </si>
+  <si>
+    <t>tnwls03270327@gmail.com</t>
+  </si>
+  <si>
+    <t>권수진</t>
+  </si>
+  <si>
+    <t>dlawlals1669@naver.com</t>
+  </si>
+  <si>
+    <t>임지민</t>
+  </si>
+  <si>
+    <t>smart0403p@naver.com</t>
+  </si>
+  <si>
+    <t>seohyojeong123@gmail.com</t>
+  </si>
+  <si>
+    <t>서효정</t>
+  </si>
+  <si>
+    <t>heejae7942@naver.com</t>
+  </si>
+  <si>
+    <t>최희재</t>
+  </si>
+  <si>
+    <t>junchan1223@naver.com</t>
+  </si>
+  <si>
+    <t>최찬현</t>
+  </si>
+  <si>
+    <t>bill916@naver.com</t>
+  </si>
+  <si>
+    <t>의약신소재</t>
+  </si>
+  <si>
+    <t>신대철</t>
+  </si>
+  <si>
+    <t>kgy5988@naver.com</t>
+  </si>
+  <si>
+    <t>김진범</t>
+  </si>
+  <si>
+    <t>kdh01270102@gmail.com</t>
+  </si>
+  <si>
+    <t>tibbit2@naver.com</t>
+  </si>
+  <si>
+    <t>AI의료융합전공</t>
+  </si>
+  <si>
+    <t>정윤재</t>
+  </si>
+  <si>
+    <t>eugene3551@gmail.com</t>
+  </si>
+  <si>
+    <t>유수영</t>
+  </si>
+  <si>
+    <t>yoon04817@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤서</t>
   </si>
 </sst>
 </file>
@@ -2147,11 +2264,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ241"/>
+  <dimension ref="A1:BQ260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D248" sqref="D248"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F274" sqref="F274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -52528,6 +52645,3977 @@
         <v>8</v>
       </c>
     </row>
+    <row r="242" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="2">
+        <v>45241.488847326385</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D242" s="1">
+        <v>20231060</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S242" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X242" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y242" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF242" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ242" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK242" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT242" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY242" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG242" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH242" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI242" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ242" s="1">
+        <v>27</v>
+      </c>
+      <c r="BK242" s="1">
+        <v>30</v>
+      </c>
+      <c r="BL242" s="1">
+        <v>31</v>
+      </c>
+      <c r="BM242" s="1">
+        <v>22</v>
+      </c>
+      <c r="BN242" s="1">
+        <v>19</v>
+      </c>
+      <c r="BO242" s="1">
+        <v>29</v>
+      </c>
+      <c r="BP242" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ242" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="2">
+        <v>45241.500201504634</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D243" s="1">
+        <v>20232738</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M243" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N243" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q243" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T243" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U243" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA243" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB243" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD243" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL243" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO243" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT243" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV243" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW243" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY243" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ243" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA243" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB243" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC243" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE243" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI243" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ243" s="1">
+        <v>11</v>
+      </c>
+      <c r="BK243" s="1">
+        <v>14</v>
+      </c>
+      <c r="BL243" s="1">
+        <v>19</v>
+      </c>
+      <c r="BM243" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN243" s="1">
+        <v>18</v>
+      </c>
+      <c r="BO243" s="1">
+        <v>21</v>
+      </c>
+      <c r="BP243" s="1">
+        <v>23</v>
+      </c>
+      <c r="BQ243" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="2">
+        <v>45241.515557326391</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D244" s="1">
+        <v>20233905</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M244" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N244" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P244" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U244" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V244" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y244" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z244" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA244" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB244" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC244" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD244" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE244" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH244" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ244" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK244" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL244" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP244" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ244" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS244" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT244" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX244" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY244" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA244" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB244" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC244" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE244" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF244" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG244" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH244" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI244" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ244" s="1">
+        <v>19</v>
+      </c>
+      <c r="BK244" s="1">
+        <v>28</v>
+      </c>
+      <c r="BL244" s="1">
+        <v>27</v>
+      </c>
+      <c r="BM244" s="1">
+        <v>25</v>
+      </c>
+      <c r="BN244" s="1">
+        <v>18</v>
+      </c>
+      <c r="BO244" s="1">
+        <v>25</v>
+      </c>
+      <c r="BP244" s="1">
+        <v>24</v>
+      </c>
+      <c r="BQ244" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="2">
+        <v>45241.522653993059</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D245" s="1">
+        <v>20232706</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K245" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M245" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N245" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q245" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R245" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T245" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V245" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z245" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB245" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC245" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD245" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF245" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG245" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH245" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL245" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT245" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU245" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ245" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC245" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ245" s="1">
+        <v>25</v>
+      </c>
+      <c r="BK245" s="1">
+        <v>16</v>
+      </c>
+      <c r="BL245" s="1">
+        <v>18</v>
+      </c>
+      <c r="BM245" s="1">
+        <v>14</v>
+      </c>
+      <c r="BN245" s="1">
+        <v>24</v>
+      </c>
+      <c r="BO245" s="1">
+        <v>17</v>
+      </c>
+      <c r="BP245" s="1">
+        <v>24</v>
+      </c>
+      <c r="BQ245" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="246" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="2">
+        <v>45241.550698819439</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D246" s="1">
+        <v>20233326</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P246" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R246" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V246" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W246" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y246" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB246" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD246" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF246" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG246" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI246" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM246" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ246" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT246" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV246" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX246" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY246" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ246" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD246" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG246" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH246" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI246" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ246" s="1">
+        <v>19</v>
+      </c>
+      <c r="BK246" s="1">
+        <v>22</v>
+      </c>
+      <c r="BL246" s="1">
+        <v>28</v>
+      </c>
+      <c r="BM246" s="1">
+        <v>28</v>
+      </c>
+      <c r="BN246" s="1">
+        <v>14</v>
+      </c>
+      <c r="BO246" s="1">
+        <v>26</v>
+      </c>
+      <c r="BP246" s="1">
+        <v>22</v>
+      </c>
+      <c r="BQ246" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="247" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="2">
+        <v>45241.585458240741</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D247" s="1">
+        <v>20171605</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M247" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK247" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG247" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH247" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI247" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ247" s="1">
+        <v>21</v>
+      </c>
+      <c r="BK247" s="1">
+        <v>18</v>
+      </c>
+      <c r="BL247" s="1">
+        <v>23</v>
+      </c>
+      <c r="BM247" s="1">
+        <v>14</v>
+      </c>
+      <c r="BN247" s="1">
+        <v>22</v>
+      </c>
+      <c r="BO247" s="1">
+        <v>26</v>
+      </c>
+      <c r="BP247" s="1">
+        <v>24</v>
+      </c>
+      <c r="BQ247" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="2">
+        <v>45241.61064677083</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D248" s="1">
+        <v>20232118</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K248" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M248" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O248" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P248" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q248" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S248" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T248" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W248" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z248" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB248" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC248" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF248" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG248" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK248" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO248" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ248" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR248" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS248" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV248" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW248" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY248" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA248" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC248" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG248" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI248" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ248" s="1">
+        <v>22</v>
+      </c>
+      <c r="BK248" s="1">
+        <v>27</v>
+      </c>
+      <c r="BL248" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM248" s="1">
+        <v>24</v>
+      </c>
+      <c r="BN248" s="1">
+        <v>22</v>
+      </c>
+      <c r="BO248" s="1">
+        <v>28</v>
+      </c>
+      <c r="BP248" s="1">
+        <v>29</v>
+      </c>
+      <c r="BQ248" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="2">
+        <v>45241.633396956022</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D249" s="1">
+        <v>20192703</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K249" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O249" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P249" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q249" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R249" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S249" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T249" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V249" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W249" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA249" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB249" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE249" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF249" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG249" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH249" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI249" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ249" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK249" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL249" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM249" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN249" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO249" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP249" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ249" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR249" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT249" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU249" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV249" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW249" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY249" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ249" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD249" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE249" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF249" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG249" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH249" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI249" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ249" s="1">
+        <v>14</v>
+      </c>
+      <c r="BK249" s="1">
+        <v>18</v>
+      </c>
+      <c r="BL249" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM249" s="1">
+        <v>17</v>
+      </c>
+      <c r="BN249" s="1">
+        <v>20</v>
+      </c>
+      <c r="BO249" s="1">
+        <v>32</v>
+      </c>
+      <c r="BP249" s="1">
+        <v>22</v>
+      </c>
+      <c r="BQ249" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="2">
+        <v>45241.644958263889</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D250" s="1">
+        <v>20231537</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K250" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M250" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N250" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P250" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q250" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S250" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U250" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V250" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y250" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z250" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA250" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC250" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD250" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE250" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG250" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK250" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM250" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS250" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU250" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV250" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW250" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA250" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB250" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC250" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG250" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH250" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI250" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ250" s="1">
+        <v>18</v>
+      </c>
+      <c r="BK250" s="1">
+        <v>20</v>
+      </c>
+      <c r="BL250" s="1">
+        <v>22</v>
+      </c>
+      <c r="BM250" s="1">
+        <v>20</v>
+      </c>
+      <c r="BN250" s="1">
+        <v>24</v>
+      </c>
+      <c r="BO250" s="1">
+        <v>24</v>
+      </c>
+      <c r="BP250" s="1">
+        <v>27</v>
+      </c>
+      <c r="BQ250" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="2">
+        <v>45241.645708692129</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D251" s="1">
+        <v>20232719</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N251" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P251" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S251" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z251" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB251" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE251" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK251" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM251" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN251" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO251" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR251" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS251" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU251" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW251" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX251" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY251" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA251" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB251" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC251" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD251" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI251" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ251" s="1">
+        <v>31</v>
+      </c>
+      <c r="BK251" s="1">
+        <v>21</v>
+      </c>
+      <c r="BL251" s="1">
+        <v>17</v>
+      </c>
+      <c r="BM251" s="1">
+        <v>19</v>
+      </c>
+      <c r="BN251" s="1">
+        <v>20</v>
+      </c>
+      <c r="BO251" s="1">
+        <v>24</v>
+      </c>
+      <c r="BP251" s="1">
+        <v>20</v>
+      </c>
+      <c r="BQ251" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="2">
+        <v>45241.691117581024</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D252" s="1">
+        <v>20226622</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K252" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N252" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P252" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R252" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S252" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T252" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U252" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V252" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X252" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y252" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z252" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA252" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB252" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC252" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG252" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH252" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI252" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ252" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK252" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL252" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM252" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN252" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO252" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP252" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ252" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR252" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS252" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT252" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV252" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX252" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY252" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ252" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD252" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE252" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF252" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI252" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ252" s="1">
+        <v>17</v>
+      </c>
+      <c r="BK252" s="1">
+        <v>10</v>
+      </c>
+      <c r="BL252" s="1">
+        <v>16</v>
+      </c>
+      <c r="BM252" s="1">
+        <v>17</v>
+      </c>
+      <c r="BN252" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO252" s="1">
+        <v>22</v>
+      </c>
+      <c r="BP252" s="1">
+        <v>25</v>
+      </c>
+      <c r="BQ252" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="2">
+        <v>45241.691370671295</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D253" s="1">
+        <v>20236301</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ253" s="1">
+        <v>23</v>
+      </c>
+      <c r="BK253" s="1">
+        <v>16</v>
+      </c>
+      <c r="BL253" s="1">
+        <v>23</v>
+      </c>
+      <c r="BM253" s="1">
+        <v>17</v>
+      </c>
+      <c r="BN253" s="1">
+        <v>18</v>
+      </c>
+      <c r="BO253" s="1">
+        <v>22</v>
+      </c>
+      <c r="BP253" s="1">
+        <v>26</v>
+      </c>
+      <c r="BQ253" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="2">
+        <v>45241.704100625</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D254" s="1">
+        <v>20236300</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ254" s="1">
+        <v>21</v>
+      </c>
+      <c r="BK254" s="1">
+        <v>21</v>
+      </c>
+      <c r="BL254" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM254" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN254" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO254" s="1">
+        <v>21</v>
+      </c>
+      <c r="BP254" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ254" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="255" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="2">
+        <v>45241.71162371528</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D255" s="1">
+        <v>20196621</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N255" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O255" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q255" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R255" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T255" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W255" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB255" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC255" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH255" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI255" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ255" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM255" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN255" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR255" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW255" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY255" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ255" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA255" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB255" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH255" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI255" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ255" s="1">
+        <v>11</v>
+      </c>
+      <c r="BK255" s="1">
+        <v>11</v>
+      </c>
+      <c r="BL255" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM255" s="1">
+        <v>20</v>
+      </c>
+      <c r="BN255" s="1">
+        <v>15</v>
+      </c>
+      <c r="BO255" s="1">
+        <v>19</v>
+      </c>
+      <c r="BP255" s="1">
+        <v>23</v>
+      </c>
+      <c r="BQ255" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="2">
+        <v>45241.74284737269</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D256" s="1">
+        <v>20203214</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R256" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ256" s="1">
+        <v>23</v>
+      </c>
+      <c r="BK256" s="1">
+        <v>33</v>
+      </c>
+      <c r="BL256" s="1">
+        <v>32</v>
+      </c>
+      <c r="BM256" s="1">
+        <v>16</v>
+      </c>
+      <c r="BN256" s="1">
+        <v>26</v>
+      </c>
+      <c r="BO256" s="1">
+        <v>24</v>
+      </c>
+      <c r="BP256" s="1">
+        <v>35</v>
+      </c>
+      <c r="BQ256" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="2">
+        <v>45241.74586653935</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D257" s="1">
+        <v>20212707</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N257" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O257" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P257" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q257" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X257" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y257" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB257" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD257" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF257" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ257" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM257" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN257" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS257" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW257" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX257" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB257" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD257" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI257" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ257" s="1">
+        <v>10</v>
+      </c>
+      <c r="BK257" s="1">
+        <v>29</v>
+      </c>
+      <c r="BL257" s="1">
+        <v>10</v>
+      </c>
+      <c r="BM257" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN257" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO257" s="1">
+        <v>31</v>
+      </c>
+      <c r="BP257" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ257" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="2">
+        <v>45241.748877824073</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D258" s="1">
+        <v>20216750</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI258" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ258" s="1">
+        <v>7</v>
+      </c>
+      <c r="BK258" s="1">
+        <v>7</v>
+      </c>
+      <c r="BL258" s="1">
+        <v>7</v>
+      </c>
+      <c r="BM258" s="1">
+        <v>7</v>
+      </c>
+      <c r="BN258" s="1">
+        <v>7</v>
+      </c>
+      <c r="BO258" s="1">
+        <v>7</v>
+      </c>
+      <c r="BP258" s="1">
+        <v>7</v>
+      </c>
+      <c r="BQ258" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="2">
+        <v>45241.75118324074</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D259" s="1">
+        <v>20235214</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P259" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R259" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S259" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T259" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB259" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH259" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ259" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN259" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR259" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS259" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV259" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW259" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA259" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD259" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE259" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF259" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH259" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ259" s="1">
+        <v>9</v>
+      </c>
+      <c r="BK259" s="1">
+        <v>11</v>
+      </c>
+      <c r="BL259" s="1">
+        <v>23</v>
+      </c>
+      <c r="BM259" s="1">
+        <v>11</v>
+      </c>
+      <c r="BN259" s="1">
+        <v>17</v>
+      </c>
+      <c r="BO259" s="1">
+        <v>16</v>
+      </c>
+      <c r="BP259" s="1">
+        <v>18</v>
+      </c>
+      <c r="BQ259" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="2">
+        <v>45241.751998009262</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D260" s="1">
+        <v>20236770</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N260" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P260" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q260" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T260" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF260" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG260" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ260" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN260" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO260" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP260" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ260" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA260" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI260" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ260" s="1">
+        <v>13</v>
+      </c>
+      <c r="BK260" s="1">
+        <v>10</v>
+      </c>
+      <c r="BL260" s="1">
+        <v>16</v>
+      </c>
+      <c r="BM260" s="1">
+        <v>18</v>
+      </c>
+      <c r="BN260" s="1">
+        <v>14</v>
+      </c>
+      <c r="BO260" s="1">
+        <v>20</v>
+      </c>
+      <c r="BP260" s="1">
+        <v>19</v>
+      </c>
+      <c r="BQ260" s="1">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/MI231106.xlsx
+++ b/R/data/MI231106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B50E72-3676-B047-AD17-A76E94C60AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C2E39E-1298-8D49-93E1-6C22AA754B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50080" yWindow="1560" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15350" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17179" uniqueCount="722">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1991,6 +1991,201 @@
   </si>
   <si>
     <t>장윤서</t>
+  </si>
+  <si>
+    <t>20235130@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김상윤</t>
+  </si>
+  <si>
+    <t>rhy0787@naver.com</t>
+  </si>
+  <si>
+    <t>유희영</t>
+  </si>
+  <si>
+    <t>yewonshine@naver.com</t>
+  </si>
+  <si>
+    <t>허예원</t>
+  </si>
+  <si>
+    <t>hhuning8814@gmail.com</t>
+  </si>
+  <si>
+    <t>임지우</t>
+  </si>
+  <si>
+    <t>20226760@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>Ai의료융합</t>
+  </si>
+  <si>
+    <t>이민홍</t>
+  </si>
+  <si>
+    <t>mu3218712@naver.com</t>
+  </si>
+  <si>
+    <t>이무원</t>
+  </si>
+  <si>
+    <t>minhan3729@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>이민한</t>
+  </si>
+  <si>
+    <t>bluessin0312@naver.com</t>
+  </si>
+  <si>
+    <t>신혜빈</t>
+  </si>
+  <si>
+    <t>minho020122@gmail.com</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>kimdo4524@naver.com</t>
+  </si>
+  <si>
+    <t>ee2243@naver.com</t>
+  </si>
+  <si>
+    <t>정주연</t>
+  </si>
+  <si>
+    <t>leesave9@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 국어국문학전공</t>
+  </si>
+  <si>
+    <t>이혁재</t>
+  </si>
+  <si>
+    <t>dltndus004@naver.com</t>
+  </si>
+  <si>
+    <t>alsgk03@naver.com</t>
+  </si>
+  <si>
+    <t>사회</t>
+  </si>
+  <si>
+    <t>박민하</t>
+  </si>
+  <si>
+    <t>audri01@naver.com</t>
+  </si>
+  <si>
+    <t>이승아</t>
+  </si>
+  <si>
+    <t>wldodxp@naver.com</t>
+  </si>
+  <si>
+    <t>박지영</t>
+  </si>
+  <si>
+    <t>justin0304299@naver.com</t>
+  </si>
+  <si>
+    <t>박기현</t>
+  </si>
+  <si>
+    <t>ke64276065@gmail.com</t>
+  </si>
+  <si>
+    <t>김가은</t>
+  </si>
+  <si>
+    <t>choe0119@gmail.com</t>
+  </si>
+  <si>
+    <t>최태웅</t>
+  </si>
+  <si>
+    <t>biseos4@gmail.com</t>
+  </si>
+  <si>
+    <t>박주영</t>
+  </si>
+  <si>
+    <t>sinjisu030426@gmail.com</t>
+  </si>
+  <si>
+    <t>신지수</t>
+  </si>
+  <si>
+    <t>wooyj0817@naver.com</t>
+  </si>
+  <si>
+    <t>우연정</t>
+  </si>
+  <si>
+    <t>yukima0110@naver.com</t>
+  </si>
+  <si>
+    <t>유설진</t>
+  </si>
+  <si>
+    <t>donghyun4147@naver.com</t>
+  </si>
+  <si>
+    <t>0310cherry@naver.com</t>
+  </si>
+  <si>
+    <t>이재원</t>
+  </si>
+  <si>
+    <t>srhst1130@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>윤하은</t>
+  </si>
+  <si>
+    <t>bin85288@daum.net</t>
+  </si>
+  <si>
+    <t>김수빈</t>
+  </si>
+  <si>
+    <t>choihyobin0128@naver.com</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>최효빈</t>
+  </si>
+  <si>
+    <t>hanhj0223@gmail.com</t>
+  </si>
+  <si>
+    <t>한형준</t>
+  </si>
+  <si>
+    <t>20233824@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>안지영</t>
+  </si>
+  <si>
+    <t>leejuns0711@naver.com</t>
+  </si>
+  <si>
+    <t>이준서</t>
   </si>
 </sst>
 </file>
@@ -2264,11 +2459,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ260"/>
+  <dimension ref="A1:BQ291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F274" sqref="F274"/>
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -56616,6 +56811,6485 @@
         <v>14</v>
       </c>
     </row>
+    <row r="261" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="2">
+        <v>45241.759570613431</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D261" s="1">
+        <v>20235130</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ261" s="1">
+        <v>21</v>
+      </c>
+      <c r="BK261" s="1">
+        <v>21</v>
+      </c>
+      <c r="BL261" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM261" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN261" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO261" s="1">
+        <v>21</v>
+      </c>
+      <c r="BP261" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ261" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="2">
+        <v>45241.760224016209</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D262" s="1">
+        <v>20213827</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M262" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W262" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X262" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y262" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z262" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE262" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS262" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW262" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX262" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC262" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG262" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI262" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ262" s="1">
+        <v>25</v>
+      </c>
+      <c r="BK262" s="1">
+        <v>17</v>
+      </c>
+      <c r="BL262" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM262" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN262" s="1">
+        <v>17</v>
+      </c>
+      <c r="BO262" s="1">
+        <v>25</v>
+      </c>
+      <c r="BP262" s="1">
+        <v>26</v>
+      </c>
+      <c r="BQ262" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="263" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="2">
+        <v>45241.760272858795</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D263" s="1">
+        <v>20217122</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R263" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T263" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W263" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB263" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ263" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL263" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP263" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ263" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR263" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV263" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY263" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ263" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB263" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD263" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF263" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG263" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH263" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI263" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ263" s="1">
+        <v>17</v>
+      </c>
+      <c r="BK263" s="1">
+        <v>13</v>
+      </c>
+      <c r="BL263" s="1">
+        <v>16</v>
+      </c>
+      <c r="BM263" s="1">
+        <v>9</v>
+      </c>
+      <c r="BN263" s="1">
+        <v>17</v>
+      </c>
+      <c r="BO263" s="1">
+        <v>15</v>
+      </c>
+      <c r="BP263" s="1">
+        <v>28</v>
+      </c>
+      <c r="BQ263" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="2">
+        <v>45241.80211488426</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D264" s="1">
+        <v>20236635</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O264" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P264" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R264" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T264" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W264" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB264" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG264" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ264" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN264" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO264" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ264" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR264" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV264" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW264" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY264" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ264" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD264" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF264" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH264" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI264" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ264" s="1">
+        <v>13</v>
+      </c>
+      <c r="BK264" s="1">
+        <v>17</v>
+      </c>
+      <c r="BL264" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM264" s="1">
+        <v>15</v>
+      </c>
+      <c r="BN264" s="1">
+        <v>18</v>
+      </c>
+      <c r="BO264" s="1">
+        <v>21</v>
+      </c>
+      <c r="BP264" s="1">
+        <v>24</v>
+      </c>
+      <c r="BQ264" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="2">
+        <v>45241.810364884259</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D265" s="1">
+        <v>20226760</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI265" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ265" s="1">
+        <v>21</v>
+      </c>
+      <c r="BK265" s="1">
+        <v>21</v>
+      </c>
+      <c r="BL265" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM265" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN265" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO265" s="1">
+        <v>21</v>
+      </c>
+      <c r="BP265" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ265" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="2">
+        <v>45241.83807677083</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D266" s="1">
+        <v>20211061</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M266" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P266" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U266" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z266" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD266" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL266" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN266" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT266" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE266" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF266" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ266" s="1">
+        <v>33</v>
+      </c>
+      <c r="BK266" s="1">
+        <v>35</v>
+      </c>
+      <c r="BL266" s="1">
+        <v>25</v>
+      </c>
+      <c r="BM266" s="1">
+        <v>33</v>
+      </c>
+      <c r="BN266" s="1">
+        <v>34</v>
+      </c>
+      <c r="BO266" s="1">
+        <v>30</v>
+      </c>
+      <c r="BP266" s="1">
+        <v>35</v>
+      </c>
+      <c r="BQ266" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="267" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="2">
+        <v>45241.844628611114</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D267" s="1">
+        <v>20182556</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ267" s="1">
+        <v>21</v>
+      </c>
+      <c r="BK267" s="1">
+        <v>21</v>
+      </c>
+      <c r="BL267" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM267" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN267" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO267" s="1">
+        <v>21</v>
+      </c>
+      <c r="BP267" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ267" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="2">
+        <v>45241.856618599537</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D268" s="1">
+        <v>20221054</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O268" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q268" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R268" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S268" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T268" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U268" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V268" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W268" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X268" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA268" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB268" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE268" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF268" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG268" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH268" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI268" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ268" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL268" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP268" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ268" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR268" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU268" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW268" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX268" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY268" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ268" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB268" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC268" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD268" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF268" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH268" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ268" s="1">
+        <v>33</v>
+      </c>
+      <c r="BK268" s="1">
+        <v>8</v>
+      </c>
+      <c r="BL268" s="1">
+        <v>7</v>
+      </c>
+      <c r="BM268" s="1">
+        <v>28</v>
+      </c>
+      <c r="BN268" s="1">
+        <v>29</v>
+      </c>
+      <c r="BO268" s="1">
+        <v>30</v>
+      </c>
+      <c r="BP268" s="1">
+        <v>31</v>
+      </c>
+      <c r="BQ268" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="2">
+        <v>45241.86955304398</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D269" s="1">
+        <v>20212709</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI269" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ269" s="1">
+        <v>10</v>
+      </c>
+      <c r="BK269" s="1">
+        <v>10</v>
+      </c>
+      <c r="BL269" s="1">
+        <v>20</v>
+      </c>
+      <c r="BM269" s="1">
+        <v>10</v>
+      </c>
+      <c r="BN269" s="1">
+        <v>30</v>
+      </c>
+      <c r="BO269" s="1">
+        <v>20</v>
+      </c>
+      <c r="BP269" s="1">
+        <v>30</v>
+      </c>
+      <c r="BQ269" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="2">
+        <v>45241.883897997686</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D270" s="1">
+        <v>20232407</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K270" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L270" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O270" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q270" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U270" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X270" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y270" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA270" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF270" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG270" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH270" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI270" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ270" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK270" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL270" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO270" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR270" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS270" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV270" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA270" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD270" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF270" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG270" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ270" s="1">
+        <v>17</v>
+      </c>
+      <c r="BK270" s="1">
+        <v>11</v>
+      </c>
+      <c r="BL270" s="1">
+        <v>16</v>
+      </c>
+      <c r="BM270" s="1">
+        <v>16</v>
+      </c>
+      <c r="BN270" s="1">
+        <v>25</v>
+      </c>
+      <c r="BO270" s="1">
+        <v>30</v>
+      </c>
+      <c r="BP270" s="1">
+        <v>25</v>
+      </c>
+      <c r="BQ270" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="2">
+        <v>45241.884083437501</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D271" s="1">
+        <v>20232362</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M271" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N271" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O271" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P271" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q271" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V271" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W271" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y271" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI271" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ271" s="1">
+        <v>20</v>
+      </c>
+      <c r="BK271" s="1">
+        <v>10</v>
+      </c>
+      <c r="BL271" s="1">
+        <v>7</v>
+      </c>
+      <c r="BM271" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN271" s="1">
+        <v>22</v>
+      </c>
+      <c r="BO271" s="1">
+        <v>23</v>
+      </c>
+      <c r="BP271" s="1">
+        <v>24</v>
+      </c>
+      <c r="BQ271" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="2">
+        <v>45241.886360636578</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D272" s="1">
+        <v>20181088</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K272" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L272" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M272" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O272" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P272" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q272" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R272" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U272" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V272" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W272" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X272" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y272" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z272" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC272" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD272" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE272" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG272" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH272" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK272" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM272" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN272" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO272" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ272" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR272" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS272" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT272" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU272" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV272" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW272" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA272" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB272" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC272" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD272" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE272" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF272" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG272" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH272" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI272" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ272" s="1">
+        <v>23</v>
+      </c>
+      <c r="BK272" s="1">
+        <v>11</v>
+      </c>
+      <c r="BL272" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM272" s="1">
+        <v>20</v>
+      </c>
+      <c r="BN272" s="1">
+        <v>30</v>
+      </c>
+      <c r="BO272" s="1">
+        <v>28</v>
+      </c>
+      <c r="BP272" s="1">
+        <v>23</v>
+      </c>
+      <c r="BQ272" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="2">
+        <v>45241.895722546295</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D273" s="1">
+        <v>20232627</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L273" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M273" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N273" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P273" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL273" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR273" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT273" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU273" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB273" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC273" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE273" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF273" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH273" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI273" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ273" s="1">
+        <v>17</v>
+      </c>
+      <c r="BK273" s="1">
+        <v>20</v>
+      </c>
+      <c r="BL273" s="1">
+        <v>23</v>
+      </c>
+      <c r="BM273" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN273" s="1">
+        <v>24</v>
+      </c>
+      <c r="BO273" s="1">
+        <v>27</v>
+      </c>
+      <c r="BP273" s="1">
+        <v>20</v>
+      </c>
+      <c r="BQ273" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="2">
+        <v>45241.913691759255</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D274" s="1">
+        <v>20222213</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M274" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P274" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q274" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R274" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S274" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T274" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U274" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V274" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X274" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB274" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD274" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE274" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF274" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH274" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI274" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK274" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM274" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO274" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP274" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ274" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR274" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX274" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY274" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ274" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD274" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF274" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG274" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH274" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI274" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ274" s="1">
+        <v>15</v>
+      </c>
+      <c r="BK274" s="1">
+        <v>16</v>
+      </c>
+      <c r="BL274" s="1">
+        <v>16</v>
+      </c>
+      <c r="BM274" s="1">
+        <v>12</v>
+      </c>
+      <c r="BN274" s="1">
+        <v>23</v>
+      </c>
+      <c r="BO274" s="1">
+        <v>20</v>
+      </c>
+      <c r="BP274" s="1">
+        <v>20</v>
+      </c>
+      <c r="BQ274" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="275" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="2">
+        <v>45241.925054050924</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D275" s="1">
+        <v>20203639</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K275" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M275" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N275" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S275" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U275" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W275" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y275" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z275" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB275" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD275" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE275" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF275" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG275" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM275" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN275" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO275" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT275" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU275" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI275" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ275" s="1">
+        <v>30</v>
+      </c>
+      <c r="BK275" s="1">
+        <v>30</v>
+      </c>
+      <c r="BL275" s="1">
+        <v>30</v>
+      </c>
+      <c r="BM275" s="1">
+        <v>30</v>
+      </c>
+      <c r="BN275" s="1">
+        <v>30</v>
+      </c>
+      <c r="BO275" s="1">
+        <v>30</v>
+      </c>
+      <c r="BP275" s="1">
+        <v>30</v>
+      </c>
+      <c r="BQ275" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="276" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="2">
+        <v>45241.931387581018</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D276" s="1">
+        <v>20212727</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K276" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L276" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M276" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N276" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O276" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P276" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W276" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z276" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA276" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE276" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF276" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG276" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI276" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ276" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR276" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS276" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT276" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV276" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW276" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY276" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ276" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC276" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD276" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG276" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI276" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ276" s="1">
+        <v>13</v>
+      </c>
+      <c r="BK276" s="1">
+        <v>17</v>
+      </c>
+      <c r="BL276" s="1">
+        <v>22</v>
+      </c>
+      <c r="BM276" s="1">
+        <v>19</v>
+      </c>
+      <c r="BN276" s="1">
+        <v>16</v>
+      </c>
+      <c r="BO276" s="1">
+        <v>28</v>
+      </c>
+      <c r="BP276" s="1">
+        <v>24</v>
+      </c>
+      <c r="BQ276" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="2">
+        <v>45241.975825358793</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D277" s="1">
+        <v>20213515</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M277" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N277" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P277" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q277" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R277" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X277" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z277" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC277" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG277" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI277" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK277" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP277" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR277" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT277" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU277" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV277" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC277" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD277" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF277" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH277" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI277" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ277" s="1">
+        <v>7</v>
+      </c>
+      <c r="BK277" s="1">
+        <v>7</v>
+      </c>
+      <c r="BL277" s="1">
+        <v>7</v>
+      </c>
+      <c r="BM277" s="1">
+        <v>7</v>
+      </c>
+      <c r="BN277" s="1">
+        <v>7</v>
+      </c>
+      <c r="BO277" s="1">
+        <v>7</v>
+      </c>
+      <c r="BP277" s="1">
+        <v>7</v>
+      </c>
+      <c r="BQ277" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="2">
+        <v>45241.987928414354</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D278" s="1">
+        <v>20223705</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH278" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI278" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ278" s="1">
+        <v>28</v>
+      </c>
+      <c r="BK278" s="1">
+        <v>28</v>
+      </c>
+      <c r="BL278" s="1">
+        <v>28</v>
+      </c>
+      <c r="BM278" s="1">
+        <v>28</v>
+      </c>
+      <c r="BN278" s="1">
+        <v>28</v>
+      </c>
+      <c r="BO278" s="1">
+        <v>28</v>
+      </c>
+      <c r="BP278" s="1">
+        <v>28</v>
+      </c>
+      <c r="BQ278" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="279" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="2">
+        <v>45241.999761921295</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D279" s="1">
+        <v>20226176</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K279" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O279" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q279" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U279" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V279" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y279" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z279" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC279" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE279" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ279" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP279" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR279" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU279" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY279" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC279" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG279" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH279" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI279" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ279" s="1">
+        <v>21</v>
+      </c>
+      <c r="BK279" s="1">
+        <v>16</v>
+      </c>
+      <c r="BL279" s="1">
+        <v>16</v>
+      </c>
+      <c r="BM279" s="1">
+        <v>24</v>
+      </c>
+      <c r="BN279" s="1">
+        <v>24</v>
+      </c>
+      <c r="BO279" s="1">
+        <v>24</v>
+      </c>
+      <c r="BP279" s="1">
+        <v>23</v>
+      </c>
+      <c r="BQ279" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="280" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="2">
+        <v>45242.007426018521</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D280" s="1">
+        <v>20235171</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N280" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P280" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q280" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S280" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T280" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V280" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W280" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X280" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA280" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB280" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE280" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF280" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG280" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI280" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL280" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM280" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN280" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO280" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP280" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT280" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV280" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW280" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY280" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ280" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB280" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC280" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD280" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE280" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF280" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI280" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ280" s="1">
+        <v>27</v>
+      </c>
+      <c r="BK280" s="1">
+        <v>19</v>
+      </c>
+      <c r="BL280" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM280" s="1">
+        <v>22</v>
+      </c>
+      <c r="BN280" s="1">
+        <v>8</v>
+      </c>
+      <c r="BO280" s="1">
+        <v>16</v>
+      </c>
+      <c r="BP280" s="1">
+        <v>18</v>
+      </c>
+      <c r="BQ280" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="2">
+        <v>45242.017388032407</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D281" s="1">
+        <v>20222728</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M281" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N281" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P281" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q281" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U281" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V281" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W281" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE281" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG281" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN281" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT281" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE281" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI281" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ281" s="1">
+        <v>30</v>
+      </c>
+      <c r="BK281" s="1">
+        <v>29</v>
+      </c>
+      <c r="BL281" s="1">
+        <v>29</v>
+      </c>
+      <c r="BM281" s="1">
+        <v>30</v>
+      </c>
+      <c r="BN281" s="1">
+        <v>35</v>
+      </c>
+      <c r="BO281" s="1">
+        <v>35</v>
+      </c>
+      <c r="BP281" s="1">
+        <v>35</v>
+      </c>
+      <c r="BQ281" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="282" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="2">
+        <v>45242.031879444447</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D282" s="1">
+        <v>20212986</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M282" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P282" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q282" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U282" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W282" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z282" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA282" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC282" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD282" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL282" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN282" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ282" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR282" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS282" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT282" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB282" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE282" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG282" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH282" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI282" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ282" s="1">
+        <v>15</v>
+      </c>
+      <c r="BK282" s="1">
+        <v>20</v>
+      </c>
+      <c r="BL282" s="1">
+        <v>18</v>
+      </c>
+      <c r="BM282" s="1">
+        <v>16</v>
+      </c>
+      <c r="BN282" s="1">
+        <v>22</v>
+      </c>
+      <c r="BO282" s="1">
+        <v>29</v>
+      </c>
+      <c r="BP282" s="1">
+        <v>25</v>
+      </c>
+      <c r="BQ282" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="2">
+        <v>45242.043132071762</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D283" s="1">
+        <v>20192120</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K283" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L283" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q283" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R283" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S283" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T283" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V283" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W283" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X283" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y283" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z283" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC283" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE283" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF283" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG283" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH283" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI283" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ283" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK283" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL283" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN283" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO283" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP283" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ283" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR283" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS283" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT283" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV283" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW283" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX283" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY283" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ283" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA283" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD283" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF283" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG283" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI283" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ283" s="1">
+        <v>19</v>
+      </c>
+      <c r="BK283" s="1">
+        <v>9</v>
+      </c>
+      <c r="BL283" s="1">
+        <v>18</v>
+      </c>
+      <c r="BM283" s="1">
+        <v>22</v>
+      </c>
+      <c r="BN283" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO283" s="1">
+        <v>18</v>
+      </c>
+      <c r="BP283" s="1">
+        <v>18</v>
+      </c>
+      <c r="BQ283" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="2">
+        <v>45242.06004488426</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D284" s="1">
+        <v>20193401</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI284" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ284" s="1">
+        <v>20</v>
+      </c>
+      <c r="BK284" s="1">
+        <v>20</v>
+      </c>
+      <c r="BL284" s="1">
+        <v>20</v>
+      </c>
+      <c r="BM284" s="1">
+        <v>20</v>
+      </c>
+      <c r="BN284" s="1">
+        <v>20</v>
+      </c>
+      <c r="BO284" s="1">
+        <v>20</v>
+      </c>
+      <c r="BP284" s="1">
+        <v>20</v>
+      </c>
+      <c r="BQ284" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="2">
+        <v>45242.065961504632</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D285" s="1">
+        <v>20191530</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L285" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P285" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W285" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z285" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC285" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD285" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM285" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR285" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS285" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV285" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA285" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB285" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG285" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH285" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI285" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ285" s="1">
+        <v>23</v>
+      </c>
+      <c r="BK285" s="1">
+        <v>26</v>
+      </c>
+      <c r="BL285" s="1">
+        <v>26</v>
+      </c>
+      <c r="BM285" s="1">
+        <v>24</v>
+      </c>
+      <c r="BN285" s="1">
+        <v>22</v>
+      </c>
+      <c r="BO285" s="1">
+        <v>25</v>
+      </c>
+      <c r="BP285" s="1">
+        <v>30</v>
+      </c>
+      <c r="BQ285" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="286" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="2">
+        <v>45242.080905092589</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D286" s="1">
+        <v>20191066</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K286" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L286" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O286" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P286" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R286" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S286" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T286" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U286" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W286" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X286" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA286" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB286" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF286" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG286" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH286" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI286" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP286" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ286" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR286" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU286" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV286" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX286" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY286" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ286" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC286" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD286" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE286" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF286" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG286" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH286" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI286" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ286" s="1">
+        <v>7</v>
+      </c>
+      <c r="BK286" s="1">
+        <v>14</v>
+      </c>
+      <c r="BL286" s="1">
+        <v>23</v>
+      </c>
+      <c r="BM286" s="1">
+        <v>12</v>
+      </c>
+      <c r="BN286" s="1">
+        <v>19</v>
+      </c>
+      <c r="BO286" s="1">
+        <v>28</v>
+      </c>
+      <c r="BP286" s="1">
+        <v>26</v>
+      </c>
+      <c r="BQ286" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="2">
+        <v>45242.105541041667</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D287" s="1">
+        <v>20231016</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K287" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L287" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O287" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R287" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S287" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T287" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U287" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA287" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB287" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF287" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG287" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI287" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ287" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL287" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM287" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO287" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP287" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ287" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR287" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT287" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU287" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV287" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW287" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY287" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ287" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD287" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF287" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH287" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI287" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ287" s="1">
+        <v>14</v>
+      </c>
+      <c r="BK287" s="1">
+        <v>13</v>
+      </c>
+      <c r="BL287" s="1">
+        <v>12</v>
+      </c>
+      <c r="BM287" s="1">
+        <v>16</v>
+      </c>
+      <c r="BN287" s="1">
+        <v>12</v>
+      </c>
+      <c r="BO287" s="1">
+        <v>20</v>
+      </c>
+      <c r="BP287" s="1">
+        <v>17</v>
+      </c>
+      <c r="BQ287" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="2">
+        <v>45242.123570057869</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D288" s="1">
+        <v>20233058</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K288" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M288" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N288" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O288" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P288" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q288" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R288" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S288" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T288" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U288" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V288" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W288" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X288" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y288" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z288" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA288" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB288" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC288" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD288" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE288" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF288" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG288" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH288" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI288" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ288" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK288" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL288" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM288" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN288" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO288" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP288" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ288" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR288" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS288" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT288" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU288" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV288" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW288" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX288" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY288" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ288" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA288" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB288" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC288" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD288" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE288" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF288" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG288" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH288" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI288" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ288" s="1">
+        <v>28</v>
+      </c>
+      <c r="BK288" s="1">
+        <v>18</v>
+      </c>
+      <c r="BL288" s="1">
+        <v>25</v>
+      </c>
+      <c r="BM288" s="1">
+        <v>25</v>
+      </c>
+      <c r="BN288" s="1">
+        <v>15</v>
+      </c>
+      <c r="BO288" s="1">
+        <v>22</v>
+      </c>
+      <c r="BP288" s="1">
+        <v>25</v>
+      </c>
+      <c r="BQ288" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="2">
+        <v>45242.129258715278</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D289" s="1">
+        <v>20233966</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N289" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T289" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X289" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB289" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR289" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS289" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU289" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV289" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW289" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ289" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC289" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD289" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI289" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ289" s="1">
+        <v>20</v>
+      </c>
+      <c r="BK289" s="1">
+        <v>12</v>
+      </c>
+      <c r="BL289" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM289" s="1">
+        <v>14</v>
+      </c>
+      <c r="BN289" s="1">
+        <v>18</v>
+      </c>
+      <c r="BO289" s="1">
+        <v>18</v>
+      </c>
+      <c r="BP289" s="1">
+        <v>20</v>
+      </c>
+      <c r="BQ289" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="2">
+        <v>45242.19067841435</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D290" s="1">
+        <v>20233824</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M290" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P290" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q290" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W290" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z290" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD290" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE290" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT290" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU290" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV290" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB290" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC290" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE290" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ290" s="1">
+        <v>18</v>
+      </c>
+      <c r="BK290" s="1">
+        <v>17</v>
+      </c>
+      <c r="BL290" s="1">
+        <v>23</v>
+      </c>
+      <c r="BM290" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN290" s="1">
+        <v>22</v>
+      </c>
+      <c r="BO290" s="1">
+        <v>27</v>
+      </c>
+      <c r="BP290" s="1">
+        <v>24</v>
+      </c>
+      <c r="BQ290" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="291" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="2">
+        <v>45242.24304721065</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D291" s="1">
+        <v>20202741</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M291" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P291" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U291" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W291" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y291" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z291" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL291" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS291" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT291" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA291" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF291" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ291" s="1">
+        <v>16</v>
+      </c>
+      <c r="BK291" s="1">
+        <v>26</v>
+      </c>
+      <c r="BL291" s="1">
+        <v>22</v>
+      </c>
+      <c r="BM291" s="1">
+        <v>24</v>
+      </c>
+      <c r="BN291" s="1">
+        <v>24</v>
+      </c>
+      <c r="BO291" s="1">
+        <v>25</v>
+      </c>
+      <c r="BP291" s="1">
+        <v>24</v>
+      </c>
+      <c r="BQ291" s="1">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/MI231106.xlsx
+++ b/R/data/MI231106.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9288369B-CB5F-BD40-BC41-7DB01B585885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA802522-2DFD-1B4E-B602-F0434FFB3416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46460" yWindow="5300" windowWidth="38400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22843" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24908" uniqueCount="999">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2797,6 +2797,228 @@
   <si>
     <t>김세영</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skyblue990080@gmail.com</t>
+  </si>
+  <si>
+    <t>윤나영</t>
+  </si>
+  <si>
+    <t>dlthfdk2@naver.com</t>
+  </si>
+  <si>
+    <t>이솔아</t>
+  </si>
+  <si>
+    <t>20162715@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김현욱</t>
+  </si>
+  <si>
+    <t>ryan.kang04@gmail.com</t>
+  </si>
+  <si>
+    <t>강우석</t>
+  </si>
+  <si>
+    <t>limmh96@gmail.com</t>
+  </si>
+  <si>
+    <t>임민호</t>
+  </si>
+  <si>
+    <t>kimhongik03@gmail.com</t>
+  </si>
+  <si>
+    <t>김홍익</t>
+  </si>
+  <si>
+    <t>yoonsm4538@gmail.com</t>
+  </si>
+  <si>
+    <t>윤상민</t>
+  </si>
+  <si>
+    <t>yeshin05@naver.com</t>
+  </si>
+  <si>
+    <t>최예원</t>
+  </si>
+  <si>
+    <t>byeol1710@naver.com</t>
+  </si>
+  <si>
+    <t>김별</t>
+  </si>
+  <si>
+    <t>fkdldjs0322@naver.com</t>
+  </si>
+  <si>
+    <t>이지희</t>
+  </si>
+  <si>
+    <t>bb2611323@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능</t>
+  </si>
+  <si>
+    <t>방유빈</t>
+  </si>
+  <si>
+    <t>yeon-jin22@naver.com</t>
+  </si>
+  <si>
+    <t>최연진</t>
+  </si>
+  <si>
+    <t>1004eunsei@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌 비즈니스학과</t>
+  </si>
+  <si>
+    <t>조은세</t>
+  </si>
+  <si>
+    <t>20225169@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>배승유</t>
+  </si>
+  <si>
+    <t>skdud5438@naver.com</t>
+  </si>
+  <si>
+    <t>곽나영</t>
+  </si>
+  <si>
+    <t>kddong99@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터전공</t>
+  </si>
+  <si>
+    <t>김상준</t>
+  </si>
+  <si>
+    <t>ckckguswns@naver.com</t>
+  </si>
+  <si>
+    <t>차현준</t>
+  </si>
+  <si>
+    <t>cheeseru0808@naver.com</t>
+  </si>
+  <si>
+    <t>siyun8477@gmail.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>minky1501@gmail.com</t>
+  </si>
+  <si>
+    <t>최민경</t>
+  </si>
+  <si>
+    <t>ssb060333@gmail.com</t>
+  </si>
+  <si>
+    <t>신수빈</t>
+  </si>
+  <si>
+    <t>jangyc3972@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤채</t>
+  </si>
+  <si>
+    <t>dutmddus1219@naver.com</t>
+  </si>
+  <si>
+    <t>영어영문</t>
+  </si>
+  <si>
+    <t>여승연</t>
+  </si>
+  <si>
+    <t>back8028@naver.com</t>
+  </si>
+  <si>
+    <t>백재영</t>
+  </si>
+  <si>
+    <t>sjh8358000@naver.com</t>
+  </si>
+  <si>
+    <t>손지후</t>
+  </si>
+  <si>
+    <t>dlgpals27@naver.com</t>
+  </si>
+  <si>
+    <t>이혜민</t>
+  </si>
+  <si>
+    <t>sherisim@naver.com</t>
+  </si>
+  <si>
+    <t>심시원</t>
+  </si>
+  <si>
+    <t>osy2858@gmail.com</t>
+  </si>
+  <si>
+    <t>오수연</t>
+  </si>
+  <si>
+    <t>hkmcosmos1@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>한기민</t>
+  </si>
+  <si>
+    <t>ai20233638@gmail.com</t>
+  </si>
+  <si>
+    <t>장예은</t>
+  </si>
+  <si>
+    <t>rkdtmdrn1018@naver.com</t>
+  </si>
+  <si>
+    <t>강승구</t>
+  </si>
+  <si>
+    <t>ssabaljukinsaekki@gmail.com</t>
+  </si>
+  <si>
+    <t>정민석</t>
+  </si>
+  <si>
+    <t>kuopty2758@gmail.com</t>
+  </si>
+  <si>
+    <t>강채원</t>
+  </si>
+  <si>
+    <t>tjr5457@naver.com</t>
+  </si>
+  <si>
+    <t>정현석</t>
+  </si>
+  <si>
+    <t>h20205265@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최준영</t>
   </si>
 </sst>
 </file>
@@ -3070,11 +3292,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ387"/>
+  <dimension ref="A1:BQ422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E320" sqref="E320"/>
+      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E426" sqref="E426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -83965,6 +84187,7321 @@
         <v>13</v>
       </c>
     </row>
+    <row r="388" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="2">
+        <v>45243.132930960652</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D388" s="1">
+        <v>20233828</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I388" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K388" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M388" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P388" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S388" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T388" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U388" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V388" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W388" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X388" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y388" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z388" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA388" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB388" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC388" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD388" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE388" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF388" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI388" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ388" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK388" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM388" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN388" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO388" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP388" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ388" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR388" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS388" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV388" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW388" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX388" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ388" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA388" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB388" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC388" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD388" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF388" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG388" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH388" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI388" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ388" s="1">
+        <v>21</v>
+      </c>
+      <c r="BK388" s="1">
+        <v>17</v>
+      </c>
+      <c r="BL388" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM388" s="1">
+        <v>27</v>
+      </c>
+      <c r="BN388" s="1">
+        <v>17</v>
+      </c>
+      <c r="BO388" s="1">
+        <v>20</v>
+      </c>
+      <c r="BP388" s="1">
+        <v>18</v>
+      </c>
+      <c r="BQ388" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="389" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="2">
+        <v>45243.430601539352</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D389" s="1">
+        <v>20192743</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I389" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L389" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M389" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N389" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P389" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q389" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S389" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V389" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W389" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB389" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC389" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD389" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK389" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL389" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN389" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO389" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ389" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS389" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT389" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU389" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV389" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY389" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ389" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA389" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB389" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC389" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD389" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE389" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG389" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH389" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ389" s="1">
+        <v>13</v>
+      </c>
+      <c r="BK389" s="1">
+        <v>22</v>
+      </c>
+      <c r="BL389" s="1">
+        <v>23</v>
+      </c>
+      <c r="BM389" s="1">
+        <v>27</v>
+      </c>
+      <c r="BN389" s="1">
+        <v>28</v>
+      </c>
+      <c r="BO389" s="1">
+        <v>25</v>
+      </c>
+      <c r="BP389" s="1">
+        <v>32</v>
+      </c>
+      <c r="BQ389" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="390" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="2">
+        <v>45243.477134062501</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D390" s="1">
+        <v>20162715</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J390" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M390" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O390" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q390" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U390" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V390" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W390" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y390" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z390" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC390" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD390" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG390" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH390" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ390" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ390" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT390" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX390" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ390" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB390" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC390" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD390" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE390" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF390" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG390" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH390" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI390" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ390" s="1">
+        <v>22</v>
+      </c>
+      <c r="BK390" s="1">
+        <v>28</v>
+      </c>
+      <c r="BL390" s="1">
+        <v>30</v>
+      </c>
+      <c r="BM390" s="1">
+        <v>28</v>
+      </c>
+      <c r="BN390" s="1">
+        <v>22</v>
+      </c>
+      <c r="BO390" s="1">
+        <v>25</v>
+      </c>
+      <c r="BP390" s="1">
+        <v>23</v>
+      </c>
+      <c r="BQ390" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="391" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="2">
+        <v>45243.556393356484</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D391" s="1">
+        <v>20235105</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K391" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L391" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M391" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N391" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O391" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P391" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q391" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S391" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U391" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W391" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y391" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z391" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA391" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC391" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD391" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE391" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ391" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK391" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL391" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO391" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS391" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT391" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU391" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV391" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA391" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB391" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC391" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH391" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI391" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ391" s="1">
+        <v>23</v>
+      </c>
+      <c r="BK391" s="1">
+        <v>26</v>
+      </c>
+      <c r="BL391" s="1">
+        <v>26</v>
+      </c>
+      <c r="BM391" s="1">
+        <v>31</v>
+      </c>
+      <c r="BN391" s="1">
+        <v>31</v>
+      </c>
+      <c r="BO391" s="1">
+        <v>29</v>
+      </c>
+      <c r="BP391" s="1">
+        <v>29</v>
+      </c>
+      <c r="BQ391" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="392" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="2">
+        <v>45243.564465821764</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D392" s="1">
+        <v>20232632</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI392" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ392" s="1">
+        <v>10</v>
+      </c>
+      <c r="BK392" s="1">
+        <v>10</v>
+      </c>
+      <c r="BL392" s="1">
+        <v>20</v>
+      </c>
+      <c r="BM392" s="1">
+        <v>10</v>
+      </c>
+      <c r="BN392" s="1">
+        <v>30</v>
+      </c>
+      <c r="BO392" s="1">
+        <v>20</v>
+      </c>
+      <c r="BP392" s="1">
+        <v>25</v>
+      </c>
+      <c r="BQ392" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="393" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A393" s="2">
+        <v>45243.572602488421</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D393" s="1">
+        <v>20232114</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI393" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ393" s="1">
+        <v>10</v>
+      </c>
+      <c r="BK393" s="1">
+        <v>20</v>
+      </c>
+      <c r="BL393" s="1">
+        <v>10</v>
+      </c>
+      <c r="BM393" s="1">
+        <v>10</v>
+      </c>
+      <c r="BN393" s="1">
+        <v>10</v>
+      </c>
+      <c r="BO393" s="1">
+        <v>10</v>
+      </c>
+      <c r="BP393" s="1">
+        <v>10</v>
+      </c>
+      <c r="BQ393" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="394" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="2">
+        <v>45243.612501342592</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D394" s="1">
+        <v>20221626</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J394" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K394" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O394" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P394" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U394" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V394" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA394" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV394" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW394" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ394" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA394" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC394" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ394" s="1">
+        <v>7</v>
+      </c>
+      <c r="BK394" s="1">
+        <v>9</v>
+      </c>
+      <c r="BL394" s="1">
+        <v>9</v>
+      </c>
+      <c r="BM394" s="1">
+        <v>9</v>
+      </c>
+      <c r="BN394" s="1">
+        <v>9</v>
+      </c>
+      <c r="BO394" s="1">
+        <v>11</v>
+      </c>
+      <c r="BP394" s="1">
+        <v>11</v>
+      </c>
+      <c r="BQ394" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="395" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A395" s="2">
+        <v>45243.644522777773</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D395" s="1">
+        <v>20236639</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I395" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J395" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L395" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N395" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P395" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S395" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U395" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z395" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA395" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB395" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE395" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF395" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG395" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ395" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL395" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN395" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ395" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR395" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS395" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT395" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB395" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG395" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH395" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ395" s="1">
+        <v>20</v>
+      </c>
+      <c r="BK395" s="1">
+        <v>23</v>
+      </c>
+      <c r="BL395" s="1">
+        <v>25</v>
+      </c>
+      <c r="BM395" s="1">
+        <v>22</v>
+      </c>
+      <c r="BN395" s="1">
+        <v>16</v>
+      </c>
+      <c r="BO395" s="1">
+        <v>27</v>
+      </c>
+      <c r="BP395" s="1">
+        <v>31</v>
+      </c>
+      <c r="BQ395" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="396" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="2">
+        <v>45243.682997418982</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D396" s="1">
+        <v>20226218</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J396" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K396" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L396" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M396" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N396" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O396" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P396" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q396" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V396" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W396" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X396" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y396" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z396" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD396" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE396" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF396" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG396" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH396" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN396" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO396" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW396" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY396" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ396" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB396" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC396" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD396" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG396" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH396" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI396" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ396" s="1">
+        <v>35</v>
+      </c>
+      <c r="BK396" s="1">
+        <v>35</v>
+      </c>
+      <c r="BL396" s="1">
+        <v>19</v>
+      </c>
+      <c r="BM396" s="1">
+        <v>35</v>
+      </c>
+      <c r="BN396" s="1">
+        <v>23</v>
+      </c>
+      <c r="BO396" s="1">
+        <v>27</v>
+      </c>
+      <c r="BP396" s="1">
+        <v>26</v>
+      </c>
+      <c r="BQ396" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="397" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="2">
+        <v>45243.707017604167</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D397" s="1">
+        <v>20231075</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J397" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K397" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L397" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R397" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S397" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T397" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V397" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X397" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y397" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z397" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA397" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB397" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC397" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE397" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF397" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG397" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH397" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI397" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ397" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK397" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO397" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP397" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ397" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR397" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS397" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU397" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW397" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX397" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY397" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ397" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA397" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB397" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC397" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD397" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE397" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF397" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH397" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI397" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ397" s="1">
+        <v>13</v>
+      </c>
+      <c r="BK397" s="1">
+        <v>13</v>
+      </c>
+      <c r="BL397" s="1">
+        <v>15</v>
+      </c>
+      <c r="BM397" s="1">
+        <v>25</v>
+      </c>
+      <c r="BN397" s="1">
+        <v>26</v>
+      </c>
+      <c r="BO397" s="1">
+        <v>24</v>
+      </c>
+      <c r="BP397" s="1">
+        <v>20</v>
+      </c>
+      <c r="BQ397" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="398" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A398" s="2">
+        <v>45243.72135457176</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D398" s="1">
+        <v>20236729</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I398" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K398" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P398" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S398" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T398" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK398" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM398" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO398" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ398" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH398" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI398" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ398" s="1">
+        <v>19</v>
+      </c>
+      <c r="BK398" s="1">
+        <v>17</v>
+      </c>
+      <c r="BL398" s="1">
+        <v>22</v>
+      </c>
+      <c r="BM398" s="1">
+        <v>20</v>
+      </c>
+      <c r="BN398" s="1">
+        <v>15</v>
+      </c>
+      <c r="BO398" s="1">
+        <v>24</v>
+      </c>
+      <c r="BP398" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ398" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="399" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="2">
+        <v>45243.788251817125</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D399" s="1">
+        <v>20233256</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K399" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M399" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N399" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U399" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA399" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE399" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI399" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM399" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ399" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH399" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI399" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ399" s="1">
+        <v>21</v>
+      </c>
+      <c r="BK399" s="1">
+        <v>21</v>
+      </c>
+      <c r="BL399" s="1">
+        <v>18</v>
+      </c>
+      <c r="BM399" s="1">
+        <v>18</v>
+      </c>
+      <c r="BN399" s="1">
+        <v>18</v>
+      </c>
+      <c r="BO399" s="1">
+        <v>24</v>
+      </c>
+      <c r="BP399" s="1">
+        <v>17</v>
+      </c>
+      <c r="BQ399" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="400" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="2">
+        <v>45243.801823923612</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D400" s="1">
+        <v>20226423</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H400" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I400" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J400" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M400" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O400" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P400" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R400" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U400" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W400" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X400" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE400" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM400" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN400" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO400" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU400" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV400" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW400" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX400" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG400" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI400" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ400" s="1">
+        <v>33</v>
+      </c>
+      <c r="BK400" s="1">
+        <v>10</v>
+      </c>
+      <c r="BL400" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM400" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN400" s="1">
+        <v>27</v>
+      </c>
+      <c r="BO400" s="1">
+        <v>30</v>
+      </c>
+      <c r="BP400" s="1">
+        <v>35</v>
+      </c>
+      <c r="BQ400" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="401" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A401" s="2">
+        <v>45243.856811631944</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D401" s="1">
+        <v>20225169</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J401" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K401" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M401" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N401" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R401" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X401" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA401" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG401" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH401" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ401" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN401" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR401" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW401" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF401" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG401" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH401" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ401" s="1">
+        <v>19</v>
+      </c>
+      <c r="BK401" s="1">
+        <v>16</v>
+      </c>
+      <c r="BL401" s="1">
+        <v>26</v>
+      </c>
+      <c r="BM401" s="1">
+        <v>18</v>
+      </c>
+      <c r="BN401" s="1">
+        <v>20</v>
+      </c>
+      <c r="BO401" s="1">
+        <v>24</v>
+      </c>
+      <c r="BP401" s="1">
+        <v>23</v>
+      </c>
+      <c r="BQ401" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="402" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A402" s="2">
+        <v>45243.865129722224</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D402" s="1">
+        <v>20232803</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J402" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K402" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M402" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N402" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O402" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P402" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q402" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U402" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V402" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W402" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y402" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z402" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA402" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB402" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC402" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD402" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE402" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF402" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG402" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH402" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK402" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL402" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM402" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN402" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO402" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP402" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR402" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT402" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU402" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW402" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX402" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB402" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC402" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD402" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE402" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH402" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI402" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ402" s="1">
+        <v>18</v>
+      </c>
+      <c r="BK402" s="1">
+        <v>9</v>
+      </c>
+      <c r="BL402" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM402" s="1">
+        <v>15</v>
+      </c>
+      <c r="BN402" s="1">
+        <v>17</v>
+      </c>
+      <c r="BO402" s="1">
+        <v>25</v>
+      </c>
+      <c r="BP402" s="1">
+        <v>27</v>
+      </c>
+      <c r="BQ402" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="403" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A403" s="2">
+        <v>45243.874547465282</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D403" s="1">
+        <v>20181205</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K403" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L403" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M403" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI403" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ403" s="1">
+        <v>21</v>
+      </c>
+      <c r="BK403" s="1">
+        <v>21</v>
+      </c>
+      <c r="BL403" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM403" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN403" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO403" s="1">
+        <v>21</v>
+      </c>
+      <c r="BP403" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ403" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="404" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A404" s="2">
+        <v>45243.908590624997</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D404" s="1">
+        <v>20192233</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD404" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI404" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ404" s="1">
+        <v>35</v>
+      </c>
+      <c r="BK404" s="1">
+        <v>25</v>
+      </c>
+      <c r="BL404" s="1">
+        <v>32</v>
+      </c>
+      <c r="BM404" s="1">
+        <v>31</v>
+      </c>
+      <c r="BN404" s="1">
+        <v>10</v>
+      </c>
+      <c r="BO404" s="1">
+        <v>34</v>
+      </c>
+      <c r="BP404" s="1">
+        <v>32</v>
+      </c>
+      <c r="BQ404" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="405" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A405" s="2">
+        <v>45243.937881412035</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D405" s="1">
+        <v>20201606</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I405" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M405" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N405" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O405" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P405" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q405" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U405" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W405" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC405" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD405" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE405" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH405" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO405" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT405" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU405" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB405" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC405" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE405" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH405" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI405" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ405" s="1">
+        <v>18</v>
+      </c>
+      <c r="BK405" s="1">
+        <v>16</v>
+      </c>
+      <c r="BL405" s="1">
+        <v>11</v>
+      </c>
+      <c r="BM405" s="1">
+        <v>13</v>
+      </c>
+      <c r="BN405" s="1">
+        <v>22</v>
+      </c>
+      <c r="BO405" s="1">
+        <v>20</v>
+      </c>
+      <c r="BP405" s="1">
+        <v>19</v>
+      </c>
+      <c r="BQ405" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="406" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="2">
+        <v>45243.992380960648</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D406" s="1">
+        <v>20236224</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y406" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z406" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB406" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC406" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD406" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL406" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR406" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS406" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT406" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU406" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ406" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB406" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH406" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI406" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ406" s="1">
+        <v>17</v>
+      </c>
+      <c r="BK406" s="1">
+        <v>24</v>
+      </c>
+      <c r="BL406" s="1">
+        <v>25</v>
+      </c>
+      <c r="BM406" s="1">
+        <v>25</v>
+      </c>
+      <c r="BN406" s="1">
+        <v>22</v>
+      </c>
+      <c r="BO406" s="1">
+        <v>28</v>
+      </c>
+      <c r="BP406" s="1">
+        <v>17</v>
+      </c>
+      <c r="BQ406" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="407" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="2">
+        <v>45243.992584374995</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D407" s="1">
+        <v>20233644</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I407" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J407" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K407" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L407" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M407" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N407" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O407" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P407" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q407" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R407" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U407" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V407" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W407" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y407" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z407" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC407" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD407" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE407" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF407" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH407" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK407" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL407" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM407" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO407" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP407" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS407" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT407" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU407" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV407" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX407" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA407" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB407" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC407" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE407" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF407" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG407" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI407" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ407" s="1">
+        <v>19</v>
+      </c>
+      <c r="BK407" s="1">
+        <v>14</v>
+      </c>
+      <c r="BL407" s="1">
+        <v>30</v>
+      </c>
+      <c r="BM407" s="1">
+        <v>22</v>
+      </c>
+      <c r="BN407" s="1">
+        <v>15</v>
+      </c>
+      <c r="BO407" s="1">
+        <v>27</v>
+      </c>
+      <c r="BP407" s="1">
+        <v>29</v>
+      </c>
+      <c r="BQ407" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="408" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="2">
+        <v>45243.999243287035</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D408" s="1">
+        <v>20222614</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H408" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I408" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K408" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L408" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M408" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N408" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O408" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P408" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q408" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R408" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S408" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T408" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U408" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W408" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y408" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z408" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA408" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD408" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE408" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF408" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG408" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH408" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI408" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM408" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN408" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO408" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ408" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT408" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU408" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW408" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ408" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA408" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC408" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD408" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE408" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF408" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG408" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH408" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI408" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ408" s="1">
+        <v>30</v>
+      </c>
+      <c r="BK408" s="1">
+        <v>18</v>
+      </c>
+      <c r="BL408" s="1">
+        <v>20</v>
+      </c>
+      <c r="BM408" s="1">
+        <v>13</v>
+      </c>
+      <c r="BN408" s="1">
+        <v>32</v>
+      </c>
+      <c r="BO408" s="1">
+        <v>30</v>
+      </c>
+      <c r="BP408" s="1">
+        <v>24</v>
+      </c>
+      <c r="BQ408" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="409" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A409" s="2">
+        <v>45244.003757743056</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D409" s="1">
+        <v>20236771</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K409" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M409" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P409" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q409" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T409" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U409" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W409" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA409" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE409" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH409" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM409" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ409" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX409" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC409" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG409" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH409" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI409" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ409" s="1">
+        <v>19</v>
+      </c>
+      <c r="BK409" s="1">
+        <v>14</v>
+      </c>
+      <c r="BL409" s="1">
+        <v>19</v>
+      </c>
+      <c r="BM409" s="1">
+        <v>14</v>
+      </c>
+      <c r="BN409" s="1">
+        <v>14</v>
+      </c>
+      <c r="BO409" s="1">
+        <v>22</v>
+      </c>
+      <c r="BP409" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ409" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="410" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A410" s="2">
+        <v>45244.166280011574</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D410" s="1">
+        <v>20201217</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I410" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L410" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N410" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O410" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P410" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q410" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R410" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S410" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T410" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V410" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W410" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X410" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y410" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA410" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB410" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD410" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE410" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF410" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG410" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH410" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI410" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ410" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL410" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM410" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO410" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ410" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT410" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU410" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV410" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY410" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ410" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB410" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC410" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD410" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE410" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF410" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI410" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ410" s="1">
+        <v>25</v>
+      </c>
+      <c r="BK410" s="1">
+        <v>25</v>
+      </c>
+      <c r="BL410" s="1">
+        <v>20</v>
+      </c>
+      <c r="BM410" s="1">
+        <v>18</v>
+      </c>
+      <c r="BN410" s="1">
+        <v>14</v>
+      </c>
+      <c r="BO410" s="1">
+        <v>21</v>
+      </c>
+      <c r="BP410" s="1">
+        <v>14</v>
+      </c>
+      <c r="BQ410" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A411" s="2">
+        <v>45244.433122083334</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D411" s="1">
+        <v>20202972</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K411" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M411" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O411" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P411" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R411" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V411" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X411" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y411" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA411" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC411" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD411" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE411" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF411" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI411" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ411" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK411" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM411" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO411" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP411" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ411" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR411" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV411" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW411" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX411" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY411" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC411" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF411" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG411" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI411" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ411" s="1">
+        <v>25</v>
+      </c>
+      <c r="BK411" s="1">
+        <v>24</v>
+      </c>
+      <c r="BL411" s="1">
+        <v>20</v>
+      </c>
+      <c r="BM411" s="1">
+        <v>18</v>
+      </c>
+      <c r="BN411" s="1">
+        <v>18</v>
+      </c>
+      <c r="BO411" s="1">
+        <v>24</v>
+      </c>
+      <c r="BP411" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ411" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="412" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="2">
+        <v>45244.454886006948</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D412" s="1">
+        <v>20233934</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I412" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K412" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M412" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N412" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O412" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R412" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S412" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T412" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U412" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V412" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z412" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA412" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB412" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC412" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE412" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF412" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG412" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH412" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI412" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK412" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM412" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO412" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP412" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ412" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT412" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU412" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW412" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX412" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY412" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ412" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA412" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB412" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD412" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE412" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF412" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH412" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI412" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ412" s="1">
+        <v>16</v>
+      </c>
+      <c r="BK412" s="1">
+        <v>14</v>
+      </c>
+      <c r="BL412" s="1">
+        <v>15</v>
+      </c>
+      <c r="BM412" s="1">
+        <v>24</v>
+      </c>
+      <c r="BN412" s="1">
+        <v>18</v>
+      </c>
+      <c r="BO412" s="1">
+        <v>24</v>
+      </c>
+      <c r="BP412" s="1">
+        <v>17</v>
+      </c>
+      <c r="BQ412" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="413" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="2">
+        <v>45244.478217731477</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D413" s="1">
+        <v>20236767</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H413" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J413" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K413" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M413" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N413" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O413" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q413" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R413" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S413" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V413" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W413" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X413" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y413" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z413" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB413" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE413" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF413" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG413" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH413" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ413" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL413" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN413" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO413" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP413" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR413" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS413" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU413" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW413" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX413" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY413" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ413" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA413" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB413" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC413" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE413" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF413" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG413" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH413" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI413" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ413" s="1">
+        <v>32</v>
+      </c>
+      <c r="BK413" s="1">
+        <v>13</v>
+      </c>
+      <c r="BL413" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM413" s="1">
+        <v>17</v>
+      </c>
+      <c r="BN413" s="1">
+        <v>17</v>
+      </c>
+      <c r="BO413" s="1">
+        <v>22</v>
+      </c>
+      <c r="BP413" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ413" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="414" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="2">
+        <v>45244.510086863425</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D414" s="1">
+        <v>20236741</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K414" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L414" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M414" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N414" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q414" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S414" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U414" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X414" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y414" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z414" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD414" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE414" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF414" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI414" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ414" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK414" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL414" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM414" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO414" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ414" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR414" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS414" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT414" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU414" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV414" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW414" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX414" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY414" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ414" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD414" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG414" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH414" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI414" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ414" s="1">
+        <v>31</v>
+      </c>
+      <c r="BK414" s="1">
+        <v>25</v>
+      </c>
+      <c r="BL414" s="1">
+        <v>18</v>
+      </c>
+      <c r="BM414" s="1">
+        <v>27</v>
+      </c>
+      <c r="BN414" s="1">
+        <v>25</v>
+      </c>
+      <c r="BO414" s="1">
+        <v>26</v>
+      </c>
+      <c r="BP414" s="1">
+        <v>18</v>
+      </c>
+      <c r="BQ414" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="415" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="2">
+        <v>45244.57451392361</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D415" s="1">
+        <v>20233826</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I415" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S415" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA415" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB415" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC415" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI415" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ415" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK415" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM415" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO415" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV415" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA415" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD415" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG415" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI415" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ415" s="1">
+        <v>16</v>
+      </c>
+      <c r="BK415" s="1">
+        <v>18</v>
+      </c>
+      <c r="BL415" s="1">
+        <v>20</v>
+      </c>
+      <c r="BM415" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN415" s="1">
+        <v>18</v>
+      </c>
+      <c r="BO415" s="1">
+        <v>22</v>
+      </c>
+      <c r="BP415" s="1">
+        <v>23</v>
+      </c>
+      <c r="BQ415" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="416" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="2">
+        <v>45244.607521122685</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="D416" s="1">
+        <v>20226429</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF416" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI416" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ416" s="1">
+        <v>22</v>
+      </c>
+      <c r="BK416" s="1">
+        <v>26</v>
+      </c>
+      <c r="BL416" s="1">
+        <v>20</v>
+      </c>
+      <c r="BM416" s="1">
+        <v>23</v>
+      </c>
+      <c r="BN416" s="1">
+        <v>15</v>
+      </c>
+      <c r="BO416" s="1">
+        <v>25</v>
+      </c>
+      <c r="BP416" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ416" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="417" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="2">
+        <v>45244.72846337963</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D417" s="1">
+        <v>20233638</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H417" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J417" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M417" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N417" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O417" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q417" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S417" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T417" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U417" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V417" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W417" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y417" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z417" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA417" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB417" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD417" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE417" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF417" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG417" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH417" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI417" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL417" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM417" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ417" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS417" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT417" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV417" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY417" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB417" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC417" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE417" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG417" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI417" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ417" s="1">
+        <v>12</v>
+      </c>
+      <c r="BK417" s="1">
+        <v>15</v>
+      </c>
+      <c r="BL417" s="1">
+        <v>28</v>
+      </c>
+      <c r="BM417" s="1">
+        <v>18</v>
+      </c>
+      <c r="BN417" s="1">
+        <v>26</v>
+      </c>
+      <c r="BO417" s="1">
+        <v>15</v>
+      </c>
+      <c r="BP417" s="1">
+        <v>24</v>
+      </c>
+      <c r="BQ417" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="418" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="2">
+        <v>45244.732050891209</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D418" s="1">
+        <v>20232902</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J418" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N418" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O418" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R418" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S418" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T418" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U418" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA418" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC418" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD418" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE418" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ418" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK418" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT418" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV418" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA418" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE418" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF418" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG418" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH418" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI418" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ418" s="1">
+        <v>26</v>
+      </c>
+      <c r="BK418" s="1">
+        <v>15</v>
+      </c>
+      <c r="BL418" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM418" s="1">
+        <v>11</v>
+      </c>
+      <c r="BN418" s="1">
+        <v>14</v>
+      </c>
+      <c r="BO418" s="1">
+        <v>22</v>
+      </c>
+      <c r="BP418" s="1">
+        <v>19</v>
+      </c>
+      <c r="BQ418" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="419" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="2">
+        <v>45244.772410474536</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D419" s="1">
+        <v>20235252</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M419" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O419" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P419" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q419" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R419" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U419" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z419" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC419" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD419" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG419" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK419" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL419" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM419" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN419" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO419" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR419" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS419" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU419" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV419" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX419" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA419" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB419" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC419" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG419" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI419" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ419" s="1">
+        <v>19</v>
+      </c>
+      <c r="BK419" s="1">
+        <v>20</v>
+      </c>
+      <c r="BL419" s="1">
+        <v>23</v>
+      </c>
+      <c r="BM419" s="1">
+        <v>22</v>
+      </c>
+      <c r="BN419" s="1">
+        <v>16</v>
+      </c>
+      <c r="BO419" s="1">
+        <v>19</v>
+      </c>
+      <c r="BP419" s="1">
+        <v>19</v>
+      </c>
+      <c r="BQ419" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="420" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="2">
+        <v>45244.923721608793</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D420" s="1">
+        <v>20232303</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I420" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J420" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K420" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L420" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M420" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N420" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O420" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R420" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S420" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T420" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U420" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V420" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W420" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y420" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z420" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA420" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB420" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC420" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE420" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH420" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK420" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM420" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO420" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP420" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ420" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR420" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS420" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT420" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV420" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW420" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX420" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ420" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD420" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG420" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH420" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ420" s="1">
+        <v>26</v>
+      </c>
+      <c r="BK420" s="1">
+        <v>22</v>
+      </c>
+      <c r="BL420" s="1">
+        <v>30</v>
+      </c>
+      <c r="BM420" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN420" s="1">
+        <v>15</v>
+      </c>
+      <c r="BO420" s="1">
+        <v>22</v>
+      </c>
+      <c r="BP420" s="1">
+        <v>32</v>
+      </c>
+      <c r="BQ420" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="421" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="2">
+        <v>45244.931595034723</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D421" s="1">
+        <v>20193344</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I421" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K421" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N421" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O421" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R421" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S421" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V421" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W421" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X421" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y421" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z421" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB421" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC421" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD421" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE421" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF421" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH421" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI421" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK421" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL421" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM421" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO421" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ421" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR421" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS421" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT421" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU421" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV421" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW421" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX421" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ421" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA421" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB421" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC421" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD421" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF421" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG421" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH421" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI421" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ421" s="1">
+        <v>17</v>
+      </c>
+      <c r="BK421" s="1">
+        <v>17</v>
+      </c>
+      <c r="BL421" s="1">
+        <v>27</v>
+      </c>
+      <c r="BM421" s="1">
+        <v>23</v>
+      </c>
+      <c r="BN421" s="1">
+        <v>20</v>
+      </c>
+      <c r="BO421" s="1">
+        <v>25</v>
+      </c>
+      <c r="BP421" s="1">
+        <v>26</v>
+      </c>
+      <c r="BQ421" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="422" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A422" s="2">
+        <v>45244.992281724539</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D422" s="1">
+        <v>20205265</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L422" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M422" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O422" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q422" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U422" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W422" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z422" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB422" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC422" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD422" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF422" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM422" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO422" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP422" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ422" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX422" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB422" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE422" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI422" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ422" s="1">
+        <v>20</v>
+      </c>
+      <c r="BK422" s="1">
+        <v>14</v>
+      </c>
+      <c r="BL422" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM422" s="1">
+        <v>17</v>
+      </c>
+      <c r="BN422" s="1">
+        <v>23</v>
+      </c>
+      <c r="BO422" s="1">
+        <v>25</v>
+      </c>
+      <c r="BP422" s="1">
+        <v>22</v>
+      </c>
+      <c r="BQ422" s="1">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/MI231106.xlsx
+++ b/R/data/MI231106.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA802522-2DFD-1B4E-B602-F0434FFB3416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11768472-6706-A34A-A5D2-30B3CB7F1A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46460" yWindow="5300" windowWidth="38400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59160" yWindow="5520" windowWidth="38400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24908" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27386" uniqueCount="1089">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3019,6 +3019,276 @@
   </si>
   <si>
     <t>최준영</t>
+  </si>
+  <si>
+    <t>qasw0529@naver.com</t>
+  </si>
+  <si>
+    <t>wusl0327@naver.com</t>
+  </si>
+  <si>
+    <t>신지연</t>
+  </si>
+  <si>
+    <t>kim061806@naver.com</t>
+  </si>
+  <si>
+    <t>김윤서</t>
+  </si>
+  <si>
+    <t>thdrkdud456456@gmail.com</t>
+  </si>
+  <si>
+    <t>송가영</t>
+  </si>
+  <si>
+    <t>impact0219@naver.com</t>
+  </si>
+  <si>
+    <t>김서언</t>
+  </si>
+  <si>
+    <t>choiky0413@gmail.com</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>yenahpark@naver.com</t>
+  </si>
+  <si>
+    <t>사학과</t>
+  </si>
+  <si>
+    <t>박예나</t>
+  </si>
+  <si>
+    <t>jongbaep17s@gmail.com</t>
+  </si>
+  <si>
+    <t>박종배</t>
+  </si>
+  <si>
+    <t>lma240228@gmail.com</t>
+  </si>
+  <si>
+    <t>김재민</t>
+  </si>
+  <si>
+    <t>tlaaldhktlaa@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고홍보학과 </t>
+  </si>
+  <si>
+    <t>박심미</t>
+  </si>
+  <si>
+    <t>jkw1391@naver.com</t>
+  </si>
+  <si>
+    <t>김지원</t>
+  </si>
+  <si>
+    <t>loul0412@naver.com</t>
+  </si>
+  <si>
+    <t>김가령</t>
+  </si>
+  <si>
+    <t>phanbe1@naver.com</t>
+  </si>
+  <si>
+    <t>박한비</t>
+  </si>
+  <si>
+    <t>limjs1006@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부</t>
+  </si>
+  <si>
+    <t>임진서</t>
+  </si>
+  <si>
+    <t>duddndywjd@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">환경생명공학과 </t>
+  </si>
+  <si>
+    <t>송영우</t>
+  </si>
+  <si>
+    <t>20192988@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>조성모</t>
+  </si>
+  <si>
+    <t>ans1929@gmail.com</t>
+  </si>
+  <si>
+    <t>조유진</t>
+  </si>
+  <si>
+    <t>han7434380@naver.com</t>
+  </si>
+  <si>
+    <t>한진우</t>
+  </si>
+  <si>
+    <t>daysyad@naver.com</t>
+  </si>
+  <si>
+    <t>최소연</t>
+  </si>
+  <si>
+    <t>qkralgus121@gmail.com</t>
+  </si>
+  <si>
+    <t>박미현</t>
+  </si>
+  <si>
+    <t>yowon0302@gmail.com</t>
+  </si>
+  <si>
+    <t>러시아</t>
+  </si>
+  <si>
+    <t>최요원</t>
+  </si>
+  <si>
+    <t>huijeongj019@gmail.com</t>
+  </si>
+  <si>
+    <t>조희정</t>
+  </si>
+  <si>
+    <t>seonyeong0429@gmail.com</t>
+  </si>
+  <si>
+    <t>노선영</t>
+  </si>
+  <si>
+    <t>birr040511@naver.com</t>
+  </si>
+  <si>
+    <t>오준서</t>
+  </si>
+  <si>
+    <t>zero040409@gmail.com</t>
+  </si>
+  <si>
+    <t>차하율</t>
+  </si>
+  <si>
+    <t>eunhorui1029@gmail.com</t>
+  </si>
+  <si>
+    <t>조은호</t>
+  </si>
+  <si>
+    <t>sdg93712426@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>신동건</t>
+  </si>
+  <si>
+    <t>uy7249@gmail.com</t>
+  </si>
+  <si>
+    <t>이다인</t>
+  </si>
+  <si>
+    <t>tjtmdwns3504@gmail.com</t>
+  </si>
+  <si>
+    <t>서승준</t>
+  </si>
+  <si>
+    <t>wasabi0724@naver.com</t>
+  </si>
+  <si>
+    <t>홍지윤</t>
+  </si>
+  <si>
+    <t>abcdefg76500@naver.com</t>
+  </si>
+  <si>
+    <t>노희망</t>
+  </si>
+  <si>
+    <t>urica45642@gmail.com</t>
+  </si>
+  <si>
+    <t>유시현</t>
+  </si>
+  <si>
+    <t>lovechan2004@naver.com</t>
+  </si>
+  <si>
+    <t>미래융합스클</t>
+  </si>
+  <si>
+    <t>황예찬</t>
+  </si>
+  <si>
+    <t>dhwnsgh740@gmail.com</t>
+  </si>
+  <si>
+    <t>오준호</t>
+  </si>
+  <si>
+    <t>dufud7004@naver.com</t>
+  </si>
+  <si>
+    <t>윤여령</t>
+  </si>
+  <si>
+    <t>seongheun2004@gmail.com</t>
+  </si>
+  <si>
+    <t>지성흔</t>
+  </si>
+  <si>
+    <t>do.silver1107@naver.com</t>
+  </si>
+  <si>
+    <t>임도은</t>
+  </si>
+  <si>
+    <t>tkdgjs9768@naver.com</t>
+  </si>
+  <si>
+    <t>임상헌</t>
+  </si>
+  <si>
+    <t>year0309@naver.com</t>
+  </si>
+  <si>
+    <t>shdbsgh0305@naver.com</t>
+  </si>
+  <si>
+    <t>노윤호</t>
+  </si>
+  <si>
+    <t>dms95123@naver.com</t>
+  </si>
+  <si>
+    <t>김은별</t>
+  </si>
+  <si>
+    <t>xornjsskdwk0902@gmail.com</t>
+  </si>
+  <si>
+    <t>인문학부 사학전공</t>
+  </si>
+  <si>
+    <t>김태민</t>
   </si>
 </sst>
 </file>
@@ -3292,11 +3562,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ422"/>
+  <dimension ref="A1:BQ464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E426" sqref="E426"/>
+      <pane ySplit="1" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C466" sqref="C466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -91502,6 +91772,8784 @@
         <v>11</v>
       </c>
     </row>
+    <row r="423" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="2">
+        <v>45245.449263217597</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D423" s="1">
+        <v>20232508</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H423" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I423" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K423" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L423" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M423" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N423" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P423" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R423" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T423" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U423" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W423" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X423" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z423" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA423" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC423" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD423" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE423" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG423" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH423" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI423" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM423" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO423" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ423" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR423" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS423" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT423" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU423" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV423" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW423" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX423" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY423" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ423" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA423" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE423" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF423" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG423" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI423" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ423" s="1">
+        <v>19</v>
+      </c>
+      <c r="BK423" s="1">
+        <v>18</v>
+      </c>
+      <c r="BL423" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM423" s="1">
+        <v>22</v>
+      </c>
+      <c r="BN423" s="1">
+        <v>28</v>
+      </c>
+      <c r="BO423" s="1">
+        <v>31</v>
+      </c>
+      <c r="BP423" s="1">
+        <v>28</v>
+      </c>
+      <c r="BQ423" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="424" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A424" s="2">
+        <v>45245.474872754625</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D424" s="1">
+        <v>20193934</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L424" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M424" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O424" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U424" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z424" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA424" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD424" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE424" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH424" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO424" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR424" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW424" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX424" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG424" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH424" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI424" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ424" s="1">
+        <v>22</v>
+      </c>
+      <c r="BK424" s="1">
+        <v>28</v>
+      </c>
+      <c r="BL424" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM424" s="1">
+        <v>26</v>
+      </c>
+      <c r="BN424" s="1">
+        <v>18</v>
+      </c>
+      <c r="BO424" s="1">
+        <v>22</v>
+      </c>
+      <c r="BP424" s="1">
+        <v>20</v>
+      </c>
+      <c r="BQ424" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="425" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A425" s="2">
+        <v>45245.475176064814</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D425" s="1">
+        <v>20236227</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H425" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I425" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K425" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L425" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M425" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N425" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O425" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P425" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q425" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R425" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S425" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T425" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V425" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X425" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y425" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z425" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA425" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB425" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC425" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF425" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG425" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI425" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ425" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK425" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM425" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO425" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP425" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ425" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS425" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV425" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW425" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY425" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ425" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA425" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB425" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC425" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD425" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF425" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI425" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ425" s="1">
+        <v>30</v>
+      </c>
+      <c r="BK425" s="1">
+        <v>30</v>
+      </c>
+      <c r="BL425" s="1">
+        <v>30</v>
+      </c>
+      <c r="BM425" s="1">
+        <v>30</v>
+      </c>
+      <c r="BN425" s="1">
+        <v>30</v>
+      </c>
+      <c r="BO425" s="1">
+        <v>30</v>
+      </c>
+      <c r="BP425" s="1">
+        <v>30</v>
+      </c>
+      <c r="BQ425" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="426" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="2">
+        <v>45245.603433611112</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D426" s="1">
+        <v>20222968</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI426" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ426" s="1">
+        <v>10</v>
+      </c>
+      <c r="BK426" s="1">
+        <v>10</v>
+      </c>
+      <c r="BL426" s="1">
+        <v>10</v>
+      </c>
+      <c r="BM426" s="1">
+        <v>10</v>
+      </c>
+      <c r="BN426" s="1">
+        <v>10</v>
+      </c>
+      <c r="BO426" s="1">
+        <v>10</v>
+      </c>
+      <c r="BP426" s="1">
+        <v>10</v>
+      </c>
+      <c r="BQ426" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="427" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A427" s="2">
+        <v>45245.604502407412</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D427" s="1">
+        <v>20236218</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H427" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J427" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M427" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q427" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z427" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA427" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC427" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD427" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL427" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM427" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT427" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU427" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA427" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE427" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI427" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ427" s="1">
+        <v>19</v>
+      </c>
+      <c r="BK427" s="1">
+        <v>20</v>
+      </c>
+      <c r="BL427" s="1">
+        <v>23</v>
+      </c>
+      <c r="BM427" s="1">
+        <v>18</v>
+      </c>
+      <c r="BN427" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO427" s="1">
+        <v>32</v>
+      </c>
+      <c r="BP427" s="1">
+        <v>26</v>
+      </c>
+      <c r="BQ427" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="428" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A428" s="2">
+        <v>45245.613441412039</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D428" s="1">
+        <v>20236168</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M428" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N428" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V428" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y428" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z428" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD428" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN428" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU428" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX428" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB428" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC428" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF428" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG428" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI428" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ428" s="1">
+        <v>17</v>
+      </c>
+      <c r="BK428" s="1">
+        <v>19</v>
+      </c>
+      <c r="BL428" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM428" s="1">
+        <v>20</v>
+      </c>
+      <c r="BN428" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO428" s="1">
+        <v>24</v>
+      </c>
+      <c r="BP428" s="1">
+        <v>28</v>
+      </c>
+      <c r="BQ428" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="429" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="2">
+        <v>45245.617615347219</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D429" s="1">
+        <v>20221035</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H429" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I429" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J429" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K429" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M429" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N429" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O429" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P429" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S429" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U429" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W429" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X429" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y429" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z429" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA429" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB429" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD429" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE429" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF429" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG429" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM429" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ429" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS429" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT429" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU429" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV429" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW429" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX429" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ429" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB429" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC429" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD429" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG429" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI429" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ429" s="1">
+        <v>19</v>
+      </c>
+      <c r="BK429" s="1">
+        <v>16</v>
+      </c>
+      <c r="BL429" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM429" s="1">
+        <v>28</v>
+      </c>
+      <c r="BN429" s="1">
+        <v>24</v>
+      </c>
+      <c r="BO429" s="1">
+        <v>21</v>
+      </c>
+      <c r="BP429" s="1">
+        <v>28</v>
+      </c>
+      <c r="BQ429" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="430" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="2">
+        <v>45245.637152002309</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="D430" s="1">
+        <v>20226410</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O430" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T430" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U430" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V430" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z430" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD430" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE430" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG430" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM430" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO430" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ430" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR430" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS430" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT430" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU430" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX430" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB430" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC430" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD430" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ430" s="1">
+        <v>16</v>
+      </c>
+      <c r="BK430" s="1">
+        <v>23</v>
+      </c>
+      <c r="BL430" s="1">
+        <v>23</v>
+      </c>
+      <c r="BM430" s="1">
+        <v>20</v>
+      </c>
+      <c r="BN430" s="1">
+        <v>20</v>
+      </c>
+      <c r="BO430" s="1">
+        <v>27</v>
+      </c>
+      <c r="BP430" s="1">
+        <v>24</v>
+      </c>
+      <c r="BQ430" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="431" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A431" s="2">
+        <v>45245.673248923616</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D431" s="1">
+        <v>20236608</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M431" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N431" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P431" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q431" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R431" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W431" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y431" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA431" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC431" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD431" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE431" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH431" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK431" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL431" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM431" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN431" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO431" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS431" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT431" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU431" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA431" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB431" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC431" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE431" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ431" s="1">
+        <v>18</v>
+      </c>
+      <c r="BK431" s="1">
+        <v>20</v>
+      </c>
+      <c r="BL431" s="1">
+        <v>25</v>
+      </c>
+      <c r="BM431" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN431" s="1">
+        <v>30</v>
+      </c>
+      <c r="BO431" s="1">
+        <v>27</v>
+      </c>
+      <c r="BP431" s="1">
+        <v>26</v>
+      </c>
+      <c r="BQ431" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="432" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A432" s="2">
+        <v>45245.685749074073</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D432" s="1">
+        <v>20217069</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H432" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M432" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N432" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P432" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q432" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD432" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI432" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL432" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ432" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR432" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT432" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU432" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC432" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE432" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH432" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ432" s="1">
+        <v>25</v>
+      </c>
+      <c r="BK432" s="1">
+        <v>24</v>
+      </c>
+      <c r="BL432" s="1">
+        <v>20</v>
+      </c>
+      <c r="BM432" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN432" s="1">
+        <v>24</v>
+      </c>
+      <c r="BO432" s="1">
+        <v>28</v>
+      </c>
+      <c r="BP432" s="1">
+        <v>27</v>
+      </c>
+      <c r="BQ432" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="433" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A433" s="2">
+        <v>45245.686276840279</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D433" s="1">
+        <v>20212611</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R433" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S433" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T433" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y433" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB433" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF433" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG433" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI433" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ433" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD433" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF433" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG433" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH433" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI433" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ433" s="1">
+        <v>34</v>
+      </c>
+      <c r="BK433" s="1">
+        <v>34</v>
+      </c>
+      <c r="BL433" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM433" s="1">
+        <v>34</v>
+      </c>
+      <c r="BN433" s="1">
+        <v>23</v>
+      </c>
+      <c r="BO433" s="1">
+        <v>34</v>
+      </c>
+      <c r="BP433" s="1">
+        <v>34</v>
+      </c>
+      <c r="BQ433" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A434" s="2">
+        <v>45245.700625729165</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D434" s="1">
+        <v>20231201</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I434" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R434" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S434" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T434" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z434" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV434" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX434" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY434" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB434" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI434" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ434" s="1">
+        <v>11</v>
+      </c>
+      <c r="BK434" s="1">
+        <v>12</v>
+      </c>
+      <c r="BL434" s="1">
+        <v>15</v>
+      </c>
+      <c r="BM434" s="1">
+        <v>18</v>
+      </c>
+      <c r="BN434" s="1">
+        <v>13</v>
+      </c>
+      <c r="BO434" s="1">
+        <v>12</v>
+      </c>
+      <c r="BP434" s="1">
+        <v>12</v>
+      </c>
+      <c r="BQ434" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="435" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A435" s="2">
+        <v>45245.740291157403</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D435" s="1">
+        <v>20236244</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H435" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L435" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M435" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N435" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O435" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P435" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q435" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R435" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S435" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W435" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X435" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y435" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z435" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB435" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC435" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD435" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE435" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH435" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK435" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL435" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN435" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP435" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR435" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS435" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT435" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU435" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW435" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX435" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY435" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ435" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA435" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB435" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC435" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD435" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE435" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF435" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG435" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH435" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI435" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ435" s="1">
+        <v>22</v>
+      </c>
+      <c r="BK435" s="1">
+        <v>13</v>
+      </c>
+      <c r="BL435" s="1">
+        <v>20</v>
+      </c>
+      <c r="BM435" s="1">
+        <v>23</v>
+      </c>
+      <c r="BN435" s="1">
+        <v>25</v>
+      </c>
+      <c r="BO435" s="1">
+        <v>31</v>
+      </c>
+      <c r="BP435" s="1">
+        <v>24</v>
+      </c>
+      <c r="BQ435" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="436" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A436" s="2">
+        <v>45245.792636875005</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D436" s="1">
+        <v>20236424</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M436" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N436" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O436" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P436" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q436" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T436" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W436" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y436" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB436" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD436" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE436" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI436" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ436" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK436" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL436" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM436" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO436" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP436" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR436" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS436" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU436" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW436" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX436" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC436" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG436" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH436" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI436" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ436" s="1">
+        <v>31</v>
+      </c>
+      <c r="BK436" s="1">
+        <v>29</v>
+      </c>
+      <c r="BL436" s="1">
+        <v>31</v>
+      </c>
+      <c r="BM436" s="1">
+        <v>23</v>
+      </c>
+      <c r="BN436" s="1">
+        <v>28</v>
+      </c>
+      <c r="BO436" s="1">
+        <v>28</v>
+      </c>
+      <c r="BP436" s="1">
+        <v>26</v>
+      </c>
+      <c r="BQ436" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="437" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="2">
+        <v>45245.835223078699</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D437" s="1">
+        <v>20223721</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ437" s="1">
+        <v>35</v>
+      </c>
+      <c r="BK437" s="1">
+        <v>35</v>
+      </c>
+      <c r="BL437" s="1">
+        <v>35</v>
+      </c>
+      <c r="BM437" s="1">
+        <v>35</v>
+      </c>
+      <c r="BN437" s="1">
+        <v>35</v>
+      </c>
+      <c r="BO437" s="1">
+        <v>35</v>
+      </c>
+      <c r="BP437" s="1">
+        <v>35</v>
+      </c>
+      <c r="BQ437" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="438" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="2">
+        <v>45245.876843078702</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D438" s="1">
+        <v>20192988</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I438" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N438" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O438" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P438" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V438" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y438" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z438" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC438" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM438" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO438" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ438" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS438" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT438" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU438" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW438" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX438" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA438" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB438" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC438" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG438" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ438" s="1">
+        <v>17</v>
+      </c>
+      <c r="BK438" s="1">
+        <v>22</v>
+      </c>
+      <c r="BL438" s="1">
+        <v>23</v>
+      </c>
+      <c r="BM438" s="1">
+        <v>17</v>
+      </c>
+      <c r="BN438" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO438" s="1">
+        <v>27</v>
+      </c>
+      <c r="BP438" s="1">
+        <v>27</v>
+      </c>
+      <c r="BQ438" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="439" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="2">
+        <v>45245.882393726853</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D439" s="1">
+        <v>20202750</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M439" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO439" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU439" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV439" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY439" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ439" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA439" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC439" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD439" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE439" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF439" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH439" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI439" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ439" s="1">
+        <v>14</v>
+      </c>
+      <c r="BK439" s="1">
+        <v>21</v>
+      </c>
+      <c r="BL439" s="1">
+        <v>21</v>
+      </c>
+      <c r="BM439" s="1">
+        <v>18</v>
+      </c>
+      <c r="BN439" s="1">
+        <v>25</v>
+      </c>
+      <c r="BO439" s="1">
+        <v>21</v>
+      </c>
+      <c r="BP439" s="1">
+        <v>20</v>
+      </c>
+      <c r="BQ439" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="440" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="2">
+        <v>45245.88256168981</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D440" s="1">
+        <v>20224152</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H440" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K440" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L440" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M440" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N440" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q440" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T440" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U440" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X440" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y440" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC440" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD440" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE440" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF440" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG440" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI440" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ440" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL440" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN440" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO440" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ440" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR440" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT440" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX440" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA440" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB440" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD440" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF440" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG440" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH440" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI440" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ440" s="1">
+        <v>32</v>
+      </c>
+      <c r="BK440" s="1">
+        <v>17</v>
+      </c>
+      <c r="BL440" s="1">
+        <v>10</v>
+      </c>
+      <c r="BM440" s="1">
+        <v>27</v>
+      </c>
+      <c r="BN440" s="1">
+        <v>18</v>
+      </c>
+      <c r="BO440" s="1">
+        <v>23</v>
+      </c>
+      <c r="BP440" s="1">
+        <v>30</v>
+      </c>
+      <c r="BQ440" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="441" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="2">
+        <v>45245.88717825232</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D441" s="1">
+        <v>20232586</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I441" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J441" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L441" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M441" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O441" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R441" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S441" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T441" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U441" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X441" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y441" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA441" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB441" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF441" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG441" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH441" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI441" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ441" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK441" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM441" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO441" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP441" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ441" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR441" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU441" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV441" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX441" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY441" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ441" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB441" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC441" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD441" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE441" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF441" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG441" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH441" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI441" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ441" s="1">
+        <v>9</v>
+      </c>
+      <c r="BK441" s="1">
+        <v>16</v>
+      </c>
+      <c r="BL441" s="1">
+        <v>15</v>
+      </c>
+      <c r="BM441" s="1">
+        <v>24</v>
+      </c>
+      <c r="BN441" s="1">
+        <v>18</v>
+      </c>
+      <c r="BO441" s="1">
+        <v>26</v>
+      </c>
+      <c r="BP441" s="1">
+        <v>28</v>
+      </c>
+      <c r="BQ441" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="442" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A442" s="2">
+        <v>45245.896294803242</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D442" s="1">
+        <v>20236236</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I442" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K442" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L442" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M442" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N442" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O442" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P442" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q442" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S442" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T442" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U442" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V442" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W442" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y442" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z442" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA442" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD442" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG442" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH442" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI442" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK442" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL442" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO442" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ442" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR442" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT442" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU442" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX442" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY442" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ442" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB442" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC442" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG442" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI442" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ442" s="1">
+        <v>12</v>
+      </c>
+      <c r="BK442" s="1">
+        <v>19</v>
+      </c>
+      <c r="BL442" s="1">
+        <v>20</v>
+      </c>
+      <c r="BM442" s="1">
+        <v>26</v>
+      </c>
+      <c r="BN442" s="1">
+        <v>17</v>
+      </c>
+      <c r="BO442" s="1">
+        <v>26</v>
+      </c>
+      <c r="BP442" s="1">
+        <v>27</v>
+      </c>
+      <c r="BQ442" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="443" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="2">
+        <v>45245.934683553241</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D443" s="1">
+        <v>20221730</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I443" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J443" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K443" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M443" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P443" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q443" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R443" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T443" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U443" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X443" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y443" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA443" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB443" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC443" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD443" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE443" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG443" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH443" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK443" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL443" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM443" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO443" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ443" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR443" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU443" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV443" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW443" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX443" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY443" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB443" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD443" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE443" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF443" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG443" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH443" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI443" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ443" s="1">
+        <v>22</v>
+      </c>
+      <c r="BK443" s="1">
+        <v>18</v>
+      </c>
+      <c r="BL443" s="1">
+        <v>23</v>
+      </c>
+      <c r="BM443" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN443" s="1">
+        <v>29</v>
+      </c>
+      <c r="BO443" s="1">
+        <v>24</v>
+      </c>
+      <c r="BP443" s="1">
+        <v>20</v>
+      </c>
+      <c r="BQ443" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="444" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="2">
+        <v>45245.949102407409</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D444" s="1">
+        <v>20233960</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K444" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L444" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O444" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T444" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U444" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W444" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA444" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC444" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI444" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK444" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO444" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ444" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR444" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY444" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ444" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA444" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG444" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI444" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ444" s="1">
+        <v>11</v>
+      </c>
+      <c r="BK444" s="1">
+        <v>15</v>
+      </c>
+      <c r="BL444" s="1">
+        <v>9</v>
+      </c>
+      <c r="BM444" s="1">
+        <v>14</v>
+      </c>
+      <c r="BN444" s="1">
+        <v>9</v>
+      </c>
+      <c r="BO444" s="1">
+        <v>22</v>
+      </c>
+      <c r="BP444" s="1">
+        <v>19</v>
+      </c>
+      <c r="BQ444" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="445" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="2">
+        <v>45245.97317438657</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D445" s="1">
+        <v>20236235</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K445" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M445" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O445" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P445" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q445" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T445" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U445" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V445" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W445" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y445" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z445" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB445" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC445" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD445" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE445" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG445" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK445" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL445" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM445" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN445" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR445" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS445" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT445" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU445" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW445" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA445" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB445" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC445" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE445" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG445" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH445" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI445" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ445" s="1">
+        <v>19</v>
+      </c>
+      <c r="BK445" s="1">
+        <v>16</v>
+      </c>
+      <c r="BL445" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM445" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN445" s="1">
+        <v>27</v>
+      </c>
+      <c r="BO445" s="1">
+        <v>27</v>
+      </c>
+      <c r="BP445" s="1">
+        <v>28</v>
+      </c>
+      <c r="BQ445" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="446" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="2">
+        <v>45245.983619155093</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D446" s="1">
+        <v>20232832</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O446" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T446" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ446" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF446" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG446" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH446" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ446" s="1">
+        <v>18</v>
+      </c>
+      <c r="BK446" s="1">
+        <v>26</v>
+      </c>
+      <c r="BL446" s="1">
+        <v>23</v>
+      </c>
+      <c r="BM446" s="1">
+        <v>22</v>
+      </c>
+      <c r="BN446" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO446" s="1">
+        <v>29</v>
+      </c>
+      <c r="BP446" s="1">
+        <v>27</v>
+      </c>
+      <c r="BQ446" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="447" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A447" s="2">
+        <v>45246.043980381946</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D447" s="1">
+        <v>20233050</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J447" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S447" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X447" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z447" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH447" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI447" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK447" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS447" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE447" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI447" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ447" s="1">
+        <v>32</v>
+      </c>
+      <c r="BK447" s="1">
+        <v>20</v>
+      </c>
+      <c r="BL447" s="1">
+        <v>32</v>
+      </c>
+      <c r="BM447" s="1">
+        <v>35</v>
+      </c>
+      <c r="BN447" s="1">
+        <v>15</v>
+      </c>
+      <c r="BO447" s="1">
+        <v>28</v>
+      </c>
+      <c r="BP447" s="1">
+        <v>30</v>
+      </c>
+      <c r="BQ447" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="448" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A448" s="2">
+        <v>45246.052904050928</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D448" s="1">
+        <v>20223047</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H448" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K448" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L448" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N448" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P448" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q448" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S448" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V448" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X448" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA448" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB448" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ448" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK448" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL448" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN448" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ448" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR448" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV448" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY448" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ448" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB448" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF448" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG448" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ448" s="1">
+        <v>10</v>
+      </c>
+      <c r="BK448" s="1">
+        <v>10</v>
+      </c>
+      <c r="BL448" s="1">
+        <v>10</v>
+      </c>
+      <c r="BM448" s="1">
+        <v>10</v>
+      </c>
+      <c r="BN448" s="1">
+        <v>10</v>
+      </c>
+      <c r="BO448" s="1">
+        <v>10</v>
+      </c>
+      <c r="BP448" s="1">
+        <v>10</v>
+      </c>
+      <c r="BQ448" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="449" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="2">
+        <v>45246.066873449076</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D449" s="1">
+        <v>20233322</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H449" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P449" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q449" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R449" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T449" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U449" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X449" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB449" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC449" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF449" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ449" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK449" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM449" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ449" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV449" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX449" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ449" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA449" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD449" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF449" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ449" s="1">
+        <v>7</v>
+      </c>
+      <c r="BK449" s="1">
+        <v>7</v>
+      </c>
+      <c r="BL449" s="1">
+        <v>16</v>
+      </c>
+      <c r="BM449" s="1">
+        <v>8</v>
+      </c>
+      <c r="BN449" s="1">
+        <v>7</v>
+      </c>
+      <c r="BO449" s="1">
+        <v>7</v>
+      </c>
+      <c r="BP449" s="1">
+        <v>7</v>
+      </c>
+      <c r="BQ449" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="2">
+        <v>45246.169863101852</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D450" s="1">
+        <v>20207091</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q450" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX450" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH450" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI450" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ450" s="1">
+        <v>18</v>
+      </c>
+      <c r="BK450" s="1">
+        <v>22</v>
+      </c>
+      <c r="BL450" s="1">
+        <v>16</v>
+      </c>
+      <c r="BM450" s="1">
+        <v>17</v>
+      </c>
+      <c r="BN450" s="1">
+        <v>19</v>
+      </c>
+      <c r="BO450" s="1">
+        <v>23</v>
+      </c>
+      <c r="BP450" s="1">
+        <v>28</v>
+      </c>
+      <c r="BQ450" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="451" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A451" s="2">
+        <v>45246.396469143518</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D451" s="1">
+        <v>20202331</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H451" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I451" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J451" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K451" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O451" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P451" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q451" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R451" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T451" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W451" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X451" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y451" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB451" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE451" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH451" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI451" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP451" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ451" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV451" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW451" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY451" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ451" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD451" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF451" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ451" s="1">
+        <v>10</v>
+      </c>
+      <c r="BK451" s="1">
+        <v>14</v>
+      </c>
+      <c r="BL451" s="1">
+        <v>26</v>
+      </c>
+      <c r="BM451" s="1">
+        <v>16</v>
+      </c>
+      <c r="BN451" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO451" s="1">
+        <v>20</v>
+      </c>
+      <c r="BP451" s="1">
+        <v>15</v>
+      </c>
+      <c r="BQ451" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A452" s="2">
+        <v>45246.457727893518</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D452" s="1">
+        <v>20236645</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H452" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I452" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J452" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K452" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L452" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M452" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N452" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O452" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P452" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q452" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R452" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S452" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T452" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U452" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V452" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W452" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X452" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y452" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z452" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA452" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB452" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC452" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD452" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE452" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF452" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG452" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH452" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI452" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ452" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK452" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL452" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM452" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN452" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO452" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP452" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ452" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR452" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS452" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT452" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU452" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV452" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW452" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX452" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY452" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ452" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA452" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB452" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC452" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD452" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE452" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF452" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG452" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH452" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI452" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ452" s="1">
+        <v>17</v>
+      </c>
+      <c r="BK452" s="1">
+        <v>21</v>
+      </c>
+      <c r="BL452" s="1">
+        <v>22</v>
+      </c>
+      <c r="BM452" s="1">
+        <v>24</v>
+      </c>
+      <c r="BN452" s="1">
+        <v>13</v>
+      </c>
+      <c r="BO452" s="1">
+        <v>16</v>
+      </c>
+      <c r="BP452" s="1">
+        <v>16</v>
+      </c>
+      <c r="BQ452" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="453" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A453" s="2">
+        <v>45246.533488749999</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D453" s="1">
+        <v>20232946</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H453" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I453" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L453" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M453" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N453" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O453" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P453" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q453" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T453" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V453" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W453" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z453" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA453" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC453" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE453" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG453" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI453" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM453" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO453" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR453" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS453" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW453" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX453" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA453" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC453" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD453" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE453" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG453" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH453" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI453" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ453" s="1">
+        <v>33</v>
+      </c>
+      <c r="BK453" s="1">
+        <v>22</v>
+      </c>
+      <c r="BL453" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM453" s="1">
+        <v>19</v>
+      </c>
+      <c r="BN453" s="1">
+        <v>25</v>
+      </c>
+      <c r="BO453" s="1">
+        <v>26</v>
+      </c>
+      <c r="BP453" s="1">
+        <v>22</v>
+      </c>
+      <c r="BQ453" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="454" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A454" s="2">
+        <v>45246.536732199078</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D454" s="1">
+        <v>20235215</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE454" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI454" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ454" s="1">
+        <v>20</v>
+      </c>
+      <c r="BK454" s="1">
+        <v>20</v>
+      </c>
+      <c r="BL454" s="1">
+        <v>22</v>
+      </c>
+      <c r="BM454" s="1">
+        <v>22</v>
+      </c>
+      <c r="BN454" s="1">
+        <v>21</v>
+      </c>
+      <c r="BO454" s="1">
+        <v>24</v>
+      </c>
+      <c r="BP454" s="1">
+        <v>21</v>
+      </c>
+      <c r="BQ454" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="455" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A455" s="2">
+        <v>45246.596395995366</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D455" s="1">
+        <v>20236646</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI455" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ455" s="1">
+        <v>22</v>
+      </c>
+      <c r="BK455" s="1">
+        <v>33</v>
+      </c>
+      <c r="BL455" s="1">
+        <v>24</v>
+      </c>
+      <c r="BM455" s="1">
+        <v>9</v>
+      </c>
+      <c r="BN455" s="1">
+        <v>10</v>
+      </c>
+      <c r="BO455" s="1">
+        <v>29</v>
+      </c>
+      <c r="BP455" s="1">
+        <v>27</v>
+      </c>
+      <c r="BQ455" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="456" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A456" s="2">
+        <v>45246.634472060185</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D456" s="1">
+        <v>20216258</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N456" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O456" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S456" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T456" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V456" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA456" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB456" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC456" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI456" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK456" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL456" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ456" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS456" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT456" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA456" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF456" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ456" s="1">
+        <v>22</v>
+      </c>
+      <c r="BK456" s="1">
+        <v>18</v>
+      </c>
+      <c r="BL456" s="1">
+        <v>14</v>
+      </c>
+      <c r="BM456" s="1">
+        <v>14</v>
+      </c>
+      <c r="BN456" s="1">
+        <v>15</v>
+      </c>
+      <c r="BO456" s="1">
+        <v>18</v>
+      </c>
+      <c r="BP456" s="1">
+        <v>18</v>
+      </c>
+      <c r="BQ456" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="457" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A457" s="2">
+        <v>45246.665322476852</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D457" s="1">
+        <v>20236269</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI457" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ457" s="1">
+        <v>35</v>
+      </c>
+      <c r="BK457" s="1">
+        <v>35</v>
+      </c>
+      <c r="BL457" s="1">
+        <v>35</v>
+      </c>
+      <c r="BM457" s="1">
+        <v>35</v>
+      </c>
+      <c r="BN457" s="1">
+        <v>35</v>
+      </c>
+      <c r="BO457" s="1">
+        <v>35</v>
+      </c>
+      <c r="BP457" s="1">
+        <v>35</v>
+      </c>
+      <c r="BQ457" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="458" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A458" s="2">
+        <v>45246.672418344911</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D458" s="1">
+        <v>20234151</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H458" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I458" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K458" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L458" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O458" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T458" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W458" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X458" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB458" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE458" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF458" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH458" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI458" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ458" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO458" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ458" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC458" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF458" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI458" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ458" s="1">
+        <v>22</v>
+      </c>
+      <c r="BK458" s="1">
+        <v>32</v>
+      </c>
+      <c r="BL458" s="1">
+        <v>20</v>
+      </c>
+      <c r="BM458" s="1">
+        <v>25</v>
+      </c>
+      <c r="BN458" s="1">
+        <v>20</v>
+      </c>
+      <c r="BO458" s="1">
+        <v>15</v>
+      </c>
+      <c r="BP458" s="1">
+        <v>14</v>
+      </c>
+      <c r="BQ458" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="459" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A459" s="2">
+        <v>45246.718850231482</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D459" s="1">
+        <v>20212233</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H459" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I459" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J459" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K459" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L459" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M459" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N459" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O459" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P459" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q459" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R459" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S459" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T459" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U459" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V459" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W459" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X459" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y459" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z459" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA459" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB459" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC459" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD459" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE459" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF459" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG459" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH459" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI459" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ459" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK459" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL459" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM459" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN459" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO459" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP459" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ459" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR459" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS459" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT459" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU459" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV459" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW459" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX459" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY459" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ459" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA459" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB459" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC459" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD459" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE459" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF459" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG459" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH459" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI459" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ459" s="1">
+        <v>14</v>
+      </c>
+      <c r="BK459" s="1">
+        <v>13</v>
+      </c>
+      <c r="BL459" s="1">
+        <v>17</v>
+      </c>
+      <c r="BM459" s="1">
+        <v>23</v>
+      </c>
+      <c r="BN459" s="1">
+        <v>33</v>
+      </c>
+      <c r="BO459" s="1">
+        <v>30</v>
+      </c>
+      <c r="BP459" s="1">
+        <v>30</v>
+      </c>
+      <c r="BQ459" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="460" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A460" s="2">
+        <v>45246.760166539352</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D460" s="1">
+        <v>20212837</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H460" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I460" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J460" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K460" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L460" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M460" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N460" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O460" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P460" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q460" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R460" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S460" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T460" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U460" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V460" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W460" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA460" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB460" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC460" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE460" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI460" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ460" s="1">
+        <v>34</v>
+      </c>
+      <c r="BK460" s="1">
+        <v>11</v>
+      </c>
+      <c r="BL460" s="1">
+        <v>27</v>
+      </c>
+      <c r="BM460" s="1">
+        <v>32</v>
+      </c>
+      <c r="BN460" s="1">
+        <v>33</v>
+      </c>
+      <c r="BO460" s="1">
+        <v>35</v>
+      </c>
+      <c r="BP460" s="1">
+        <v>26</v>
+      </c>
+      <c r="BQ460" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="461" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A461" s="2">
+        <v>45246.795714583335</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D461" s="1">
+        <v>20222950</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I461" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K461" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L461" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S461" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T461" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z461" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA461" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB461" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD461" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE461" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG461" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI461" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ461" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP461" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ461" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR461" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX461" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY461" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ461" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH461" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI461" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ461" s="1">
+        <v>12</v>
+      </c>
+      <c r="BK461" s="1">
+        <v>13</v>
+      </c>
+      <c r="BL461" s="1">
+        <v>18</v>
+      </c>
+      <c r="BM461" s="1">
+        <v>19</v>
+      </c>
+      <c r="BN461" s="1">
+        <v>22</v>
+      </c>
+      <c r="BO461" s="1">
+        <v>32</v>
+      </c>
+      <c r="BP461" s="1">
+        <v>34</v>
+      </c>
+      <c r="BQ461" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="462" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="2">
+        <v>45246.80109267361</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D462" s="1">
+        <v>20231710</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO462" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU462" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV462" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW462" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX462" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY462" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ462" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC462" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH462" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI462" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ462" s="1">
+        <v>30</v>
+      </c>
+      <c r="BK462" s="1">
+        <v>30</v>
+      </c>
+      <c r="BL462" s="1">
+        <v>20</v>
+      </c>
+      <c r="BM462" s="1">
+        <v>30</v>
+      </c>
+      <c r="BN462" s="1">
+        <v>30</v>
+      </c>
+      <c r="BO462" s="1">
+        <v>20</v>
+      </c>
+      <c r="BP462" s="1">
+        <v>25</v>
+      </c>
+      <c r="BQ462" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="463" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A463" s="2">
+        <v>45246.801181319446</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D463" s="1">
+        <v>20232317</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J463" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M463" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O463" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q463" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U463" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V463" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W463" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X463" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y463" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z463" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA463" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD463" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE463" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH463" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK463" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL463" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN463" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO463" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT463" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU463" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV463" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW463" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB463" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC463" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE463" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG463" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH463" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI463" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ463" s="1">
+        <v>23</v>
+      </c>
+      <c r="BK463" s="1">
+        <v>18</v>
+      </c>
+      <c r="BL463" s="1">
+        <v>27</v>
+      </c>
+      <c r="BM463" s="1">
+        <v>27</v>
+      </c>
+      <c r="BN463" s="1">
+        <v>24</v>
+      </c>
+      <c r="BO463" s="1">
+        <v>28</v>
+      </c>
+      <c r="BP463" s="1">
+        <v>32</v>
+      </c>
+      <c r="BQ463" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="464" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A464" s="2">
+        <v>45246.843998877317</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D464" s="1">
+        <v>20181027</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K464" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N464" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P464" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S464" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U464" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V464" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA464" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD464" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF464" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL464" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ464" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS464" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT464" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW464" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB464" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH464" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI464" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ464" s="1">
+        <v>14</v>
+      </c>
+      <c r="BK464" s="1">
+        <v>31</v>
+      </c>
+      <c r="BL464" s="1">
+        <v>27</v>
+      </c>
+      <c r="BM464" s="1">
+        <v>30</v>
+      </c>
+      <c r="BN464" s="1">
+        <v>32</v>
+      </c>
+      <c r="BO464" s="1">
+        <v>22</v>
+      </c>
+      <c r="BP464" s="1">
+        <v>33</v>
+      </c>
+      <c r="BQ464" s="1">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
